--- a/data/BI_SPE_raw.xlsx
+++ b/data/BI_SPE_raw.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RetnoAndrini\Departemen Statistik\Survei\SPE\2020\8. Agustus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RetnoAndrini\Departemen Statistik\Survei\SPE\2020\9. September\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="107">
   <si>
     <t>DESKRIPSI</t>
   </si>
@@ -560,12 +560,6 @@
   </si>
   <si>
     <t>Makassar</t>
-  </si>
-  <si>
-    <t>Sept*</t>
-  </si>
-  <si>
-    <t>Q3*</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1867,6 +1861,12 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -5247,7 +5247,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CZ5" sqref="CZ5:DB5"/>
+      <selection pane="topRight" activeCell="DD1" sqref="DD1:DE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -5255,8 +5255,8 @@
     <col min="1" max="1" width="44.453125" customWidth="1"/>
     <col min="2" max="62" width="9.36328125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="63" max="63" width="9.36328125" customWidth="1" collapsed="1"/>
-    <col min="64" max="106" width="9.36328125" customWidth="1"/>
-    <col min="107" max="109" width="9.36328125" hidden="1" customWidth="1"/>
+    <col min="64" max="107" width="9.36328125" customWidth="1"/>
+    <col min="108" max="109" width="9.36328125" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="43.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5936,10 +5936,10 @@
         <v>13</v>
       </c>
       <c r="DB5" s="50" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="DC5" s="50" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="DD5" s="50" t="s">
         <v>10</v>
@@ -6343,9 +6343,11 @@
         <v>118.22891048230343</v>
       </c>
       <c r="DB6" s="54">
-        <v>118.22501056813279</v>
-      </c>
-      <c r="DC6" s="54"/>
+        <v>118.65843641163349</v>
+      </c>
+      <c r="DC6" s="54">
+        <v>118.64920734736396</v>
+      </c>
       <c r="DD6" s="54"/>
       <c r="DE6" s="54"/>
       <c r="DF6" s="66" t="s">
@@ -6746,9 +6748,11 @@
         <v>238.19528248461859</v>
       </c>
       <c r="DB7" s="58">
-        <v>239.79967125961298</v>
-      </c>
-      <c r="DC7" s="58"/>
+        <v>235.33099884699772</v>
+      </c>
+      <c r="DC7" s="58">
+        <v>235.41632556134351</v>
+      </c>
       <c r="DD7" s="58"/>
       <c r="DE7" s="58"/>
       <c r="DF7" s="67" t="s">
@@ -7149,9 +7153,11 @@
         <v>65.447093247443249</v>
       </c>
       <c r="DB8" s="54">
-        <v>66.92770099981081</v>
-      </c>
-      <c r="DC8" s="54"/>
+        <v>67.500582718534716</v>
+      </c>
+      <c r="DC8" s="54">
+        <v>69.970043693545435</v>
+      </c>
       <c r="DD8" s="54"/>
       <c r="DE8" s="54"/>
       <c r="DF8" s="66" t="s">
@@ -7552,9 +7558,11 @@
         <v>250.93542166049238</v>
       </c>
       <c r="DB9" s="58">
-        <v>244.74624897640371</v>
-      </c>
-      <c r="DC9" s="58"/>
+        <v>241.23642758566348</v>
+      </c>
+      <c r="DC9" s="58">
+        <v>240.67172379319706</v>
+      </c>
       <c r="DD9" s="58"/>
       <c r="DE9" s="58"/>
       <c r="DF9" s="67" t="s">
@@ -7955,9 +7963,11 @@
         <v>138.49742788035638</v>
       </c>
       <c r="DB10" s="54">
-        <v>137.26913343754387</v>
-      </c>
-      <c r="DC10" s="54"/>
+        <v>135.68276977476407</v>
+      </c>
+      <c r="DC10" s="54">
+        <v>136.74975293646401</v>
+      </c>
       <c r="DD10" s="54"/>
       <c r="DE10" s="54"/>
       <c r="DF10" s="66" t="s">
@@ -8358,9 +8368,11 @@
         <v>66.966928979155824</v>
       </c>
       <c r="DB11" s="58">
-        <v>65.653169566539347</v>
-      </c>
-      <c r="DC11" s="58"/>
+        <v>64.429920380589195</v>
+      </c>
+      <c r="DC11" s="58">
+        <v>64.174479386252685</v>
+      </c>
       <c r="DD11" s="58"/>
       <c r="DE11" s="58"/>
       <c r="DF11" s="67" t="s">
@@ -8761,9 +8773,11 @@
         <v>79.52275879495015</v>
       </c>
       <c r="DB12" s="54">
-        <v>77.6724028060557</v>
-      </c>
-      <c r="DC12" s="54"/>
+        <v>79.261945804321314</v>
+      </c>
+      <c r="DC12" s="54">
+        <v>79.717882979510719</v>
+      </c>
       <c r="DD12" s="54"/>
       <c r="DE12" s="54"/>
       <c r="DF12" s="66" t="s">
@@ -9164,9 +9178,11 @@
         <v>62.685797398537154</v>
       </c>
       <c r="DB13" s="58">
-        <v>61.234869023940426</v>
-      </c>
-      <c r="DC13" s="58"/>
+        <v>64.796720287549604</v>
+      </c>
+      <c r="DC13" s="58">
+        <v>64.245377110304332</v>
+      </c>
       <c r="DD13" s="58"/>
       <c r="DE13" s="58"/>
       <c r="DF13" s="67" t="s">
@@ -9567,9 +9583,11 @@
         <v>196.64991282010499</v>
       </c>
       <c r="DB14" s="115">
-        <v>196.76368569267282</v>
-      </c>
-      <c r="DC14" s="115"/>
+        <v>193.82974533102043</v>
+      </c>
+      <c r="DC14" s="115">
+        <v>194.10651881712155</v>
+      </c>
       <c r="DD14" s="115"/>
       <c r="DE14" s="115"/>
       <c r="DF14" s="68" t="s">
@@ -9842,7 +9860,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CZ5" sqref="CZ5:DB5"/>
+      <selection pane="topRight" activeCell="CZ6" sqref="CZ6:DB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -9858,8 +9876,8 @@
     <col min="79" max="79" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="80" max="100" width="7" customWidth="1"/>
     <col min="101" max="101" width="7.08984375" customWidth="1"/>
-    <col min="102" max="106" width="7" customWidth="1"/>
-    <col min="107" max="109" width="7" hidden="1" customWidth="1"/>
+    <col min="102" max="107" width="7" customWidth="1"/>
+    <col min="108" max="109" width="7" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="45.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10473,10 +10491,10 @@
         <v>13</v>
       </c>
       <c r="DB5" s="50" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="DC5" s="50" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="DD5" s="50" t="s">
         <v>10</v>
@@ -10896,11 +10914,11 @@
       </c>
       <c r="DB6" s="54">
         <f>IFERROR('Tabel 1'!DB6/'Tabel 1'!CP6*100-100,"")</f>
-        <v>-23.622774188634565</v>
+        <v>-23.342766909612521</v>
       </c>
       <c r="DC6" s="54">
         <f>IFERROR('Tabel 1'!DC6/'Tabel 1'!CQ6*100-100,"")</f>
-        <v>-100</v>
+        <v>-22.887844559842137</v>
       </c>
       <c r="DD6" s="54">
         <f>IFERROR('Tabel 1'!DD6/'Tabel 1'!CR6*100-100,"")</f>
@@ -11324,11 +11342,11 @@
       </c>
       <c r="DB7" s="58">
         <f>IFERROR('Tabel 1'!DB7/'Tabel 1'!CP7*100-100,"")</f>
-        <v>5.0766810611576147</v>
+        <v>3.1185746826095908</v>
       </c>
       <c r="DC7" s="58">
         <f>IFERROR('Tabel 1'!DC7/'Tabel 1'!CQ7*100-100,"")</f>
-        <v>-100</v>
+        <v>-0.17766973344727433</v>
       </c>
       <c r="DD7" s="58">
         <f>IFERROR('Tabel 1'!DD7/'Tabel 1'!CR7*100-100,"")</f>
@@ -11752,11 +11770,11 @@
       </c>
       <c r="DB8" s="54">
         <f>IFERROR('Tabel 1'!DB8/'Tabel 1'!CP8*100-100,"")</f>
-        <v>-19.388037036554465</v>
+        <v>-18.698022002385912</v>
       </c>
       <c r="DC8" s="54">
         <f>IFERROR('Tabel 1'!DC8/'Tabel 1'!CQ8*100-100,"")</f>
-        <v>-100</v>
+        <v>-18.496708714734638</v>
       </c>
       <c r="DD8" s="54">
         <f>IFERROR('Tabel 1'!DD8/'Tabel 1'!CR8*100-100,"")</f>
@@ -12180,11 +12198,11 @@
       </c>
       <c r="DB9" s="58">
         <f>IFERROR('Tabel 1'!DB9/'Tabel 1'!CP9*100-100,"")</f>
-        <v>-21.032237612339543</v>
+        <v>-22.164687007442723</v>
       </c>
       <c r="DC9" s="58">
         <f>IFERROR('Tabel 1'!DC9/'Tabel 1'!CQ9*100-100,"")</f>
-        <v>-100</v>
+        <v>-21.830136590872812</v>
       </c>
       <c r="DD9" s="58">
         <f>IFERROR('Tabel 1'!DD9/'Tabel 1'!CR9*100-100,"")</f>
@@ -12608,11 +12626,11 @@
       </c>
       <c r="DB10" s="54">
         <f>IFERROR('Tabel 1'!DB10/'Tabel 1'!CP10*100-100,"")</f>
-        <v>-25.365381774981572</v>
+        <v>-26.227903766434835</v>
       </c>
       <c r="DC10" s="54">
         <f>IFERROR('Tabel 1'!DC10/'Tabel 1'!CQ10*100-100,"")</f>
-        <v>-100</v>
+        <v>-20.855975963890685</v>
       </c>
       <c r="DD10" s="54">
         <f>IFERROR('Tabel 1'!DD10/'Tabel 1'!CR10*100-100,"")</f>
@@ -13036,11 +13054,11 @@
       </c>
       <c r="DB11" s="58">
         <f>IFERROR('Tabel 1'!DB11/'Tabel 1'!CP11*100-100,"")</f>
-        <v>-38.384732494843689</v>
+        <v>-39.532747530757447</v>
       </c>
       <c r="DC11" s="58">
         <f>IFERROR('Tabel 1'!DC11/'Tabel 1'!CQ11*100-100,"")</f>
-        <v>-100</v>
+        <v>-41.352307812664037</v>
       </c>
       <c r="DD11" s="58">
         <f>IFERROR('Tabel 1'!DD11/'Tabel 1'!CR11*100-100,"")</f>
@@ -13464,11 +13482,11 @@
       </c>
       <c r="DB12" s="54">
         <f>IFERROR('Tabel 1'!DB12/'Tabel 1'!CP12*100-100,"")</f>
-        <v>-52.764844858155065</v>
+        <v>-51.79819122809824</v>
       </c>
       <c r="DC12" s="54">
         <f>IFERROR('Tabel 1'!DC12/'Tabel 1'!CQ12*100-100,"")</f>
-        <v>-100</v>
+        <v>-52.326120000834003</v>
       </c>
       <c r="DD12" s="54">
         <f>IFERROR('Tabel 1'!DD12/'Tabel 1'!CR12*100-100,"")</f>
@@ -13892,11 +13910,11 @@
       </c>
       <c r="DB13" s="58">
         <f>IFERROR('Tabel 1'!DB13/'Tabel 1'!CP13*100-100,"")</f>
-        <v>-61.921982425125051</v>
+        <v>-59.707096737008762</v>
       </c>
       <c r="DC13" s="58">
         <f>IFERROR('Tabel 1'!DC13/'Tabel 1'!CQ13*100-100,"")</f>
-        <v>-100</v>
+        <v>-59.396038569078769</v>
       </c>
       <c r="DD13" s="58">
         <f>IFERROR('Tabel 1'!DD13/'Tabel 1'!CR13*100-100,"")</f>
@@ -14320,11 +14338,11 @@
       </c>
       <c r="DB14" s="62">
         <f>IFERROR('Tabel 1'!DB14/'Tabel 1'!CP14*100-100,"")</f>
-        <v>-7.3456098451687382</v>
+        <v>-8.7271780649475659</v>
       </c>
       <c r="DC14" s="62">
         <f>IFERROR('Tabel 1'!DC14/'Tabel 1'!CQ14*100-100,"")</f>
-        <v>-100</v>
+        <v>-10.014550019102288</v>
       </c>
       <c r="DD14" s="62">
         <f>IFERROR('Tabel 1'!DD14/'Tabel 1'!CR14*100-100,"")</f>
@@ -14604,7 +14622,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC1" sqref="DC1:DE1048576"/>
+      <selection pane="topRight" activeCell="DC21" sqref="DC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -14617,8 +14635,8 @@
     <col min="74" max="75" width="8.54296875" customWidth="1"/>
     <col min="76" max="76" width="8.6328125" customWidth="1"/>
     <col min="77" max="77" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="80" max="106" width="9.08984375" customWidth="1"/>
-    <col min="107" max="109" width="9.08984375" hidden="1" customWidth="1"/>
+    <col min="80" max="107" width="9.08984375" customWidth="1"/>
+    <col min="108" max="109" width="9.08984375" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15231,10 +15249,10 @@
         <v>13</v>
       </c>
       <c r="DB5" s="50" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="DC5" s="50" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="DD5" s="50" t="s">
         <v>10</v>
@@ -15665,15 +15683,15 @@
       </c>
       <c r="DB6" s="54">
         <f>IFERROR('Tabel 1'!DB6/'Tabel 1'!DA6*100-100,"")</f>
-        <v>-3.2986129659349217E-3</v>
-      </c>
-      <c r="DC6" s="54">
+        <v>0.36330025167097801</v>
+      </c>
+      <c r="DC6" s="162">
         <f>IFERROR('Tabel 1'!DC6/'Tabel 1'!DB6*100-100,"")</f>
+        <v>-7.7778407912916236E-3</v>
+      </c>
+      <c r="DD6" s="54">
+        <f>IFERROR('Tabel 1'!DD6/'Tabel 1'!DC6*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD6" s="54" t="str">
-        <f>IFERROR('Tabel 1'!DD6/'Tabel 1'!DC6*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE6" s="54" t="str">
         <f>IFERROR('Tabel 1'!DE6/'Tabel 1'!DD6*100-100,"")</f>
@@ -16104,15 +16122,15 @@
       </c>
       <c r="DB7" s="58">
         <f>IFERROR('Tabel 1'!DB7/'Tabel 1'!DA7*100-100,"")</f>
-        <v>0.67356026461102658</v>
-      </c>
-      <c r="DC7" s="58">
+        <v>-1.2024938561937404</v>
+      </c>
+      <c r="DC7" s="163">
         <f>IFERROR('Tabel 1'!DC7/'Tabel 1'!DB7*100-100,"")</f>
+        <v>3.6258170306439297E-2</v>
+      </c>
+      <c r="DD7" s="58">
+        <f>IFERROR('Tabel 1'!DD7/'Tabel 1'!DC7*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD7" s="58" t="str">
-        <f>IFERROR('Tabel 1'!DD7/'Tabel 1'!DC7*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE7" s="58" t="str">
         <f>IFERROR('Tabel 1'!DE7/'Tabel 1'!DD7*100-100,"")</f>
@@ -16543,15 +16561,15 @@
       </c>
       <c r="DB8" s="54">
         <f>IFERROR('Tabel 1'!DB8/'Tabel 1'!DA8*100-100,"")</f>
-        <v>2.2622971913659455</v>
+        <v>3.1376328102573012</v>
       </c>
       <c r="DC8" s="54">
         <f>IFERROR('Tabel 1'!DC8/'Tabel 1'!DB8*100-100,"")</f>
+        <v>3.6584291209868809</v>
+      </c>
+      <c r="DD8" s="54">
+        <f>IFERROR('Tabel 1'!DD8/'Tabel 1'!DC8*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD8" s="54" t="str">
-        <f>IFERROR('Tabel 1'!DD8/'Tabel 1'!DC8*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE8" s="54" t="str">
         <f>IFERROR('Tabel 1'!DE8/'Tabel 1'!DD8*100-100,"")</f>
@@ -16982,15 +17000,15 @@
       </c>
       <c r="DB9" s="58">
         <f>IFERROR('Tabel 1'!DB9/'Tabel 1'!DA9*100-100,"")</f>
-        <v>-2.4664404264386519</v>
+        <v>-3.8651355040466626</v>
       </c>
       <c r="DC9" s="58">
         <f>IFERROR('Tabel 1'!DC9/'Tabel 1'!DB9*100-100,"")</f>
+        <v>-0.23408728031586179</v>
+      </c>
+      <c r="DD9" s="58">
+        <f>IFERROR('Tabel 1'!DD9/'Tabel 1'!DC9*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD9" s="58" t="str">
-        <f>IFERROR('Tabel 1'!DD9/'Tabel 1'!DC9*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE9" s="58" t="str">
         <f>IFERROR('Tabel 1'!DE9/'Tabel 1'!DD9*100-100,"")</f>
@@ -17421,15 +17439,15 @@
       </c>
       <c r="DB10" s="54">
         <f>IFERROR('Tabel 1'!DB10/'Tabel 1'!DA10*100-100,"")</f>
-        <v>-0.88687166369155079</v>
+        <v>-2.0322818615980367</v>
       </c>
       <c r="DC10" s="54">
         <f>IFERROR('Tabel 1'!DC10/'Tabel 1'!DB10*100-100,"")</f>
+        <v>0.78638073461438296</v>
+      </c>
+      <c r="DD10" s="54">
+        <f>IFERROR('Tabel 1'!DD10/'Tabel 1'!DC10*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD10" s="54" t="str">
-        <f>IFERROR('Tabel 1'!DD10/'Tabel 1'!DC10*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE10" s="54" t="str">
         <f>IFERROR('Tabel 1'!DE10/'Tabel 1'!DD10*100-100,"")</f>
@@ -17860,15 +17878,15 @@
       </c>
       <c r="DB11" s="58">
         <f>IFERROR('Tabel 1'!DB11/'Tabel 1'!DA11*100-100,"")</f>
-        <v>-1.9618032850594034</v>
+        <v>-3.7884499666339764</v>
       </c>
       <c r="DC11" s="58">
         <f>IFERROR('Tabel 1'!DC11/'Tabel 1'!DB11*100-100,"")</f>
+        <v>-0.39646330901483395</v>
+      </c>
+      <c r="DD11" s="58">
+        <f>IFERROR('Tabel 1'!DD11/'Tabel 1'!DC11*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD11" s="58" t="str">
-        <f>IFERROR('Tabel 1'!DD11/'Tabel 1'!DC11*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE11" s="58" t="str">
         <f>IFERROR('Tabel 1'!DE11/'Tabel 1'!DD11*100-100,"")</f>
@@ -18299,15 +18317,15 @@
       </c>
       <c r="DB12" s="54">
         <f>IFERROR('Tabel 1'!DB12/'Tabel 1'!DA12*100-100,"")</f>
-        <v>-2.3268256998799473</v>
+        <v>-0.32797276475447745</v>
       </c>
       <c r="DC12" s="54">
         <f>IFERROR('Tabel 1'!DC12/'Tabel 1'!DB12*100-100,"")</f>
+        <v>0.57522834011041368</v>
+      </c>
+      <c r="DD12" s="54">
+        <f>IFERROR('Tabel 1'!DD12/'Tabel 1'!DC12*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD12" s="54" t="str">
-        <f>IFERROR('Tabel 1'!DD12/'Tabel 1'!DC12*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE12" s="54" t="str">
         <f>IFERROR('Tabel 1'!DE12/'Tabel 1'!DD12*100-100,"")</f>
@@ -18738,15 +18756,15 @@
       </c>
       <c r="DB13" s="58">
         <f>IFERROR('Tabel 1'!DB13/'Tabel 1'!DA13*100-100,"")</f>
-        <v>-2.3146046390256032</v>
+        <v>3.3674659597800769</v>
       </c>
       <c r="DC13" s="58">
         <f>IFERROR('Tabel 1'!DC13/'Tabel 1'!DB13*100-100,"")</f>
+        <v>-0.8508813020143009</v>
+      </c>
+      <c r="DD13" s="58">
+        <f>IFERROR('Tabel 1'!DD13/'Tabel 1'!DC13*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD13" s="58" t="str">
-        <f>IFERROR('Tabel 1'!DD13/'Tabel 1'!DC13*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE13" s="58" t="str">
         <f>IFERROR('Tabel 1'!DE13/'Tabel 1'!DD13*100-100,"")</f>
@@ -19177,15 +19195,15 @@
       </c>
       <c r="DB14" s="62">
         <f>IFERROR('Tabel 1'!DB14/'Tabel 1'!DA14*100-100,"")</f>
-        <v>5.785554182875785E-2</v>
+        <v>-1.4341056391235014</v>
       </c>
       <c r="DC14" s="62">
         <f>IFERROR('Tabel 1'!DC14/'Tabel 1'!DB14*100-100,"")</f>
+        <v>0.14279205992271216</v>
+      </c>
+      <c r="DD14" s="62">
+        <f>IFERROR('Tabel 1'!DD14/'Tabel 1'!DC14*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD14" s="62" t="str">
-        <f>IFERROR('Tabel 1'!DD14/'Tabel 1'!DC14*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE14" s="62" t="str">
         <f>IFERROR('Tabel 1'!DE14/'Tabel 1'!DD14*100-100,"")</f>
@@ -19458,7 +19476,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ6" sqref="AJ6:AJ14"/>
+      <selection pane="topRight" activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -19722,7 +19740,7 @@
         <v>33</v>
       </c>
       <c r="AJ5" s="76" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="AK5" s="77" t="s">
         <v>88</v>
@@ -19865,7 +19883,7 @@
       </c>
       <c r="AJ6" s="54">
         <f>AVERAGE('Tabel 2'!CZ6:DB6)</f>
-        <v>-27.512988202000709</v>
+        <v>-27.419652442326694</v>
       </c>
       <c r="AK6" s="54"/>
       <c r="AL6" s="66" t="s">
@@ -20008,7 +20026,7 @@
       </c>
       <c r="AJ7" s="58">
         <f>AVERAGE('Tabel 2'!CZ7:DB7)</f>
-        <v>1.9360197444261331</v>
+        <v>1.2833176182434585</v>
       </c>
       <c r="AK7" s="58"/>
       <c r="AL7" s="67" t="s">
@@ -20151,7 +20169,7 @@
       </c>
       <c r="AJ8" s="54">
         <f>AVERAGE('Tabel 2'!CZ8:DB8)</f>
-        <v>-22.993324699901237</v>
+        <v>-22.763319688511718</v>
       </c>
       <c r="AK8" s="54"/>
       <c r="AL8" s="66" t="s">
@@ -20294,7 +20312,7 @@
       </c>
       <c r="AJ9" s="58">
         <f>AVERAGE('Tabel 2'!CZ9:DB9)</f>
-        <v>-19.19635745925142</v>
+        <v>-19.573840590952482</v>
       </c>
       <c r="AK9" s="58"/>
       <c r="AL9" s="67" t="s">
@@ -20437,7 +20455,7 @@
       </c>
       <c r="AJ10" s="54">
         <f>AVERAGE('Tabel 2'!CZ10:DB10)</f>
-        <v>-23.733469979688028</v>
+        <v>-24.020977310172452</v>
       </c>
       <c r="AK10" s="54"/>
       <c r="AL10" s="66" t="s">
@@ -20580,7 +20598,7 @@
       </c>
       <c r="AJ11" s="58">
         <f>AVERAGE('Tabel 2'!CZ11:DB11)</f>
-        <v>-38.431637265532679</v>
+        <v>-38.814308944170598</v>
       </c>
       <c r="AK11" s="58"/>
       <c r="AL11" s="67" t="s">
@@ -20723,7 +20741,7 @@
       </c>
       <c r="AJ12" s="54">
         <f>AVERAGE('Tabel 2'!CZ12:DB12)</f>
-        <v>-56.583493588293415</v>
+        <v>-56.261275711607801</v>
       </c>
       <c r="AK12" s="54"/>
       <c r="AL12" s="66" t="s">
@@ -20866,7 +20884,7 @@
       </c>
       <c r="AJ13" s="58">
         <f>AVERAGE('Tabel 2'!CZ13:DB13)</f>
-        <v>-64.424053224264455</v>
+        <v>-63.685757994892349</v>
       </c>
       <c r="AK13" s="58"/>
       <c r="AL13" s="67" t="s">
@@ -21009,7 +21027,7 @@
       </c>
       <c r="AJ14" s="123">
         <f>AVERAGE('Tabel 2'!CZ14:DB14)</f>
-        <v>-9.6068093424040342</v>
+        <v>-10.06733208233031</v>
       </c>
       <c r="AK14" s="123"/>
       <c r="AL14" s="68" t="s">
@@ -21260,7 +21278,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="CU6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CZ6" sqref="CZ6:DB15"/>
+      <selection pane="bottomRight" activeCell="DD1" sqref="DD1:DE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -21271,8 +21289,8 @@
     <col min="62" max="62" width="9.36328125" customWidth="1" collapsed="1"/>
     <col min="63" max="91" width="9.36328125" customWidth="1"/>
     <col min="92" max="92" width="10.1796875" customWidth="1"/>
-    <col min="93" max="106" width="9.36328125" customWidth="1"/>
-    <col min="107" max="109" width="9.36328125" hidden="1" customWidth="1"/>
+    <col min="93" max="107" width="9.36328125" customWidth="1"/>
+    <col min="108" max="109" width="9.36328125" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="42.08984375" style="34" customWidth="1"/>
     <col min="113" max="113" width="8.6328125" customWidth="1"/>
   </cols>
@@ -21991,10 +22009,10 @@
         <v>13</v>
       </c>
       <c r="DB5" s="50" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="DC5" s="50" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="DD5" s="50" t="s">
         <v>10</v>
@@ -22321,9 +22339,11 @@
         <v>55.250612514395407</v>
       </c>
       <c r="DB6" s="54">
-        <v>51.411644480417166</v>
-      </c>
-      <c r="DC6" s="54"/>
+        <v>54.905905162297472</v>
+      </c>
+      <c r="DC6" s="54">
+        <v>60.940203705296852</v>
+      </c>
       <c r="DD6" s="54"/>
       <c r="DE6" s="54"/>
       <c r="DF6" s="64" t="s">
@@ -22647,9 +22667,11 @@
         <v>207.31833441656542</v>
       </c>
       <c r="DB7" s="58">
-        <v>207.47116304372895</v>
-      </c>
-      <c r="DC7" s="58"/>
+        <v>202.66750811614739</v>
+      </c>
+      <c r="DC7" s="58">
+        <v>198.67706006649948</v>
+      </c>
       <c r="DD7" s="58"/>
       <c r="DE7" s="58"/>
       <c r="DF7" s="65" t="s">
@@ -22973,9 +22995,11 @@
         <v>284.7762777029759</v>
       </c>
       <c r="DB8" s="54">
-        <v>287.17127173076676</v>
-      </c>
-      <c r="DC8" s="54"/>
+        <v>288.79389726258796</v>
+      </c>
+      <c r="DC8" s="54">
+        <v>289.84593179636244</v>
+      </c>
       <c r="DD8" s="54"/>
       <c r="DE8" s="54"/>
       <c r="DF8" s="64" t="s">
@@ -23299,9 +23323,11 @@
         <v>156.41940579223564</v>
       </c>
       <c r="DB9" s="58">
-        <v>160.09451914301707</v>
-      </c>
-      <c r="DC9" s="58"/>
+        <v>158.32886444836677</v>
+      </c>
+      <c r="DC9" s="58">
+        <v>155.54951893939602</v>
+      </c>
       <c r="DD9" s="58"/>
       <c r="DE9" s="58"/>
       <c r="DF9" s="65" t="s">
@@ -23625,9 +23651,11 @@
         <v>150.01801456824251</v>
       </c>
       <c r="DB10" s="54">
-        <v>146.49446632328468</v>
-      </c>
-      <c r="DC10" s="54"/>
+        <v>129.10867366208825</v>
+      </c>
+      <c r="DC10" s="54">
+        <v>133.51338022898895</v>
+      </c>
       <c r="DD10" s="54"/>
       <c r="DE10" s="54"/>
       <c r="DF10" s="64" t="s">
@@ -23951,9 +23979,11 @@
         <v>77.02389937237642</v>
       </c>
       <c r="DB11" s="58">
-        <v>76.860963705440028</v>
-      </c>
-      <c r="DC11" s="58"/>
+        <v>82.228313900760369</v>
+      </c>
+      <c r="DC11" s="58">
+        <v>87.200240347909144</v>
+      </c>
       <c r="DD11" s="58"/>
       <c r="DE11" s="58"/>
       <c r="DF11" s="65" t="s">
@@ -24277,9 +24307,11 @@
         <v>175.78405856400869</v>
       </c>
       <c r="DB12" s="54">
-        <v>174.28290019104725</v>
-      </c>
-      <c r="DC12" s="54"/>
+        <v>177.76620522332624</v>
+      </c>
+      <c r="DC12" s="54">
+        <v>179.82184229505677</v>
+      </c>
       <c r="DD12" s="54"/>
       <c r="DE12" s="54"/>
       <c r="DF12" s="64" t="s">
@@ -24603,9 +24635,11 @@
         <v>179.9126979802906</v>
       </c>
       <c r="DB13" s="58">
-        <v>184.43991995579239</v>
-      </c>
-      <c r="DC13" s="58"/>
+        <v>177.33876138533313</v>
+      </c>
+      <c r="DC13" s="58">
+        <v>177.64220277799205</v>
+      </c>
       <c r="DD13" s="58"/>
       <c r="DE13" s="58"/>
       <c r="DF13" s="65" t="s">
@@ -24929,9 +24963,11 @@
         <v>92.487013584039232</v>
       </c>
       <c r="DB14" s="54">
-        <v>93.808746030526237</v>
-      </c>
-      <c r="DC14" s="54"/>
+        <v>92.863472936355933</v>
+      </c>
+      <c r="DC14" s="54">
+        <v>92.501219937597071</v>
+      </c>
       <c r="DD14" s="54"/>
       <c r="DE14" s="54"/>
       <c r="DF14" s="64" t="s">
@@ -25255,9 +25291,11 @@
         <v>196.64991282010499</v>
       </c>
       <c r="DB15" s="115">
-        <v>196.76368569267282</v>
-      </c>
-      <c r="DC15" s="115"/>
+        <v>193.82974533102043</v>
+      </c>
+      <c r="DC15" s="115">
+        <v>194.10651881712155</v>
+      </c>
       <c r="DD15" s="115"/>
       <c r="DE15" s="115"/>
       <c r="DF15" s="79" t="s">
@@ -25706,7 +25744,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC1" sqref="DC1:DE1048576"/>
+      <selection pane="topRight" activeCell="DC15" sqref="DC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -25717,8 +25755,8 @@
     <col min="74" max="75" width="8.6328125" customWidth="1"/>
     <col min="76" max="76" width="7.6328125" customWidth="1"/>
     <col min="77" max="77" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="80" max="106" width="9.08984375" customWidth="1"/>
-    <col min="107" max="109" width="9.08984375" hidden="1" customWidth="1"/>
+    <col min="80" max="107" width="9.08984375" customWidth="1"/>
+    <col min="108" max="109" width="9.08984375" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26332,7 +26370,7 @@
         <v>13</v>
       </c>
       <c r="DB5" s="50" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="DC5" s="50" t="s">
         <v>87</v>
@@ -26755,11 +26793,11 @@
       </c>
       <c r="DB6" s="54">
         <f>IFERROR('Tabel 5'!DB6/'Tabel 5'!CP6*100-100,"")</f>
-        <v>-49.02302768374188</v>
+        <v>-45.558310072659616</v>
       </c>
       <c r="DC6" s="54">
         <f>IFERROR('Tabel 5'!DC6/'Tabel 5'!CQ6*100-100,"")</f>
-        <v>-100</v>
+        <v>-41.149443852561852</v>
       </c>
       <c r="DD6" s="54">
         <f>IFERROR('Tabel 5'!DD6/'Tabel 5'!CR6*100-100,"")</f>
@@ -27183,11 +27221,11 @@
       </c>
       <c r="DB7" s="58">
         <f>IFERROR('Tabel 5'!DB7/'Tabel 5'!CP7*100-100,"")</f>
-        <v>-14.528813921096472</v>
+        <v>-16.507759226799649</v>
       </c>
       <c r="DC7" s="58">
         <f>IFERROR('Tabel 5'!DC7/'Tabel 5'!CQ7*100-100,"")</f>
-        <v>-100</v>
+        <v>-18.292557134408298</v>
       </c>
       <c r="DD7" s="58">
         <f>IFERROR('Tabel 5'!DD7/'Tabel 5'!CR7*100-100,"")</f>
@@ -27611,11 +27649,11 @@
       </c>
       <c r="DB8" s="54">
         <f>IFERROR('Tabel 5'!DB8/'Tabel 5'!CP8*100-100,"")</f>
-        <v>10.281830289764883</v>
+        <v>10.904964047001982</v>
       </c>
       <c r="DC8" s="54">
         <f>IFERROR('Tabel 5'!DC8/'Tabel 5'!CQ8*100-100,"")</f>
-        <v>-100</v>
+        <v>7.4793050878971172</v>
       </c>
       <c r="DD8" s="54">
         <f>IFERROR('Tabel 5'!DD8/'Tabel 5'!CR8*100-100,"")</f>
@@ -28039,11 +28077,11 @@
       </c>
       <c r="DB9" s="58">
         <f>IFERROR('Tabel 5'!DB9/'Tabel 5'!CP9*100-100,"")</f>
-        <v>-17.23381526383298</v>
+        <v>-18.146629165395453</v>
       </c>
       <c r="DC9" s="58">
         <f>IFERROR('Tabel 5'!DC9/'Tabel 5'!CQ9*100-100,"")</f>
-        <v>-100</v>
+        <v>-18.331580888747212</v>
       </c>
       <c r="DD9" s="58">
         <f>IFERROR('Tabel 5'!DD9/'Tabel 5'!CR9*100-100,"")</f>
@@ -28467,11 +28505,11 @@
       </c>
       <c r="DB10" s="54">
         <f>IFERROR('Tabel 5'!DB10/'Tabel 5'!CP10*100-100,"")</f>
-        <v>-6.2567267207013089</v>
+        <v>-17.382069223530806</v>
       </c>
       <c r="DC10" s="54">
         <f>IFERROR('Tabel 5'!DC10/'Tabel 5'!CQ10*100-100,"")</f>
-        <v>-100</v>
+        <v>-17.595944224207258</v>
       </c>
       <c r="DD10" s="54">
         <f>IFERROR('Tabel 5'!DD10/'Tabel 5'!CR10*100-100,"")</f>
@@ -28895,11 +28933,11 @@
       </c>
       <c r="DB11" s="58">
         <f>IFERROR('Tabel 5'!DB11/'Tabel 5'!CP11*100-100,"")</f>
-        <v>-42.492204464421981</v>
+        <v>-38.476323544905476</v>
       </c>
       <c r="DC11" s="58">
         <f>IFERROR('Tabel 5'!DC11/'Tabel 5'!CQ11*100-100,"")</f>
-        <v>-100</v>
+        <v>-19.093685638108951</v>
       </c>
       <c r="DD11" s="58">
         <f>IFERROR('Tabel 5'!DD11/'Tabel 5'!CR11*100-100,"")</f>
@@ -29323,11 +29361,11 @@
       </c>
       <c r="DB12" s="54">
         <f>IFERROR('Tabel 5'!DB12/'Tabel 5'!CP12*100-100,"")</f>
-        <v>-0.5347812439974291</v>
+        <v>1.4531802636990676</v>
       </c>
       <c r="DC12" s="54">
         <f>IFERROR('Tabel 5'!DC12/'Tabel 5'!CQ12*100-100,"")</f>
-        <v>-100</v>
+        <v>2.0989576639161953</v>
       </c>
       <c r="DD12" s="54">
         <f>IFERROR('Tabel 5'!DD12/'Tabel 5'!CR12*100-100,"")</f>
@@ -29751,11 +29789,11 @@
       </c>
       <c r="DB13" s="58">
         <f>IFERROR('Tabel 5'!DB13/'Tabel 5'!CP13*100-100,"")</f>
-        <v>1.3256757006835613</v>
+        <v>-2.5754845827406996</v>
       </c>
       <c r="DC13" s="58">
         <f>IFERROR('Tabel 5'!DC13/'Tabel 5'!CQ13*100-100,"")</f>
-        <v>-100</v>
+        <v>-3.9661792464203529</v>
       </c>
       <c r="DD13" s="58">
         <f>IFERROR('Tabel 5'!DD13/'Tabel 5'!CR13*100-100,"")</f>
@@ -30179,11 +30217,11 @@
       </c>
       <c r="DB14" s="54">
         <f>IFERROR('Tabel 5'!DB14/'Tabel 5'!CP14*100-100,"")</f>
-        <v>-29.316292628886714</v>
+        <v>-30.028543987116976</v>
       </c>
       <c r="DC14" s="54">
         <f>IFERROR('Tabel 5'!DC14/'Tabel 5'!CQ14*100-100,"")</f>
-        <v>-100</v>
+        <v>-31.137361069616659</v>
       </c>
       <c r="DD14" s="54">
         <f>IFERROR('Tabel 5'!DD14/'Tabel 5'!CR14*100-100,"")</f>
@@ -30607,11 +30645,11 @@
       </c>
       <c r="DB15" s="62">
         <f>IFERROR('Tabel 5'!DB15/'Tabel 5'!CP15*100-100,"")</f>
-        <v>-7.3456098451687382</v>
+        <v>-8.7271780649475659</v>
       </c>
       <c r="DC15" s="62">
         <f>IFERROR('Tabel 5'!DC15/'Tabel 5'!CQ15*100-100,"")</f>
-        <v>-100</v>
+        <v>-10.014550019102288</v>
       </c>
       <c r="DD15" s="62">
         <f>IFERROR('Tabel 5'!DD15/'Tabel 5'!CR15*100-100,"")</f>
@@ -30738,7 +30776,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC1" sqref="DC1:DE1048576"/>
+      <selection pane="topRight" activeCell="DC15" sqref="DC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -30750,8 +30788,8 @@
     <col min="77" max="77" width="5.6328125" bestFit="1" customWidth="1"/>
     <col min="80" max="91" width="9.08984375" customWidth="1"/>
     <col min="92" max="92" width="9.81640625" customWidth="1"/>
-    <col min="93" max="106" width="9.08984375" customWidth="1"/>
-    <col min="107" max="109" width="9.08984375" hidden="1" customWidth="1"/>
+    <col min="93" max="107" width="9.08984375" customWidth="1"/>
+    <col min="108" max="109" width="9.08984375" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31365,10 +31403,10 @@
         <v>13</v>
       </c>
       <c r="DB5" s="50" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="DC5" s="50" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="DD5" s="50" t="s">
         <v>10</v>
@@ -31799,15 +31837,15 @@
       </c>
       <c r="DB6" s="54">
         <f>IFERROR('Tabel 5'!DB6/'Tabel 5'!DA6*100-100,"")</f>
-        <v>-6.9482814022704389</v>
+        <v>-0.62389779300296766</v>
       </c>
       <c r="DC6" s="54">
         <f>IFERROR('Tabel 5'!DC6/'Tabel 5'!DB6*100-100,"")</f>
+        <v>10.990254190623887</v>
+      </c>
+      <c r="DD6" s="54">
+        <f>IFERROR('Tabel 5'!DD6/'Tabel 5'!DC6*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD6" s="54" t="str">
-        <f>IFERROR('Tabel 5'!DD6/'Tabel 5'!DC6*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE6" s="54" t="str">
         <f>IFERROR('Tabel 5'!DE6/'Tabel 5'!DD6*100-100,"")</f>
@@ -32238,15 +32276,15 @@
       </c>
       <c r="DB7" s="58">
         <f>IFERROR('Tabel 5'!DB7/'Tabel 5'!DA7*100-100,"")</f>
-        <v>7.3716889340062153E-2</v>
+        <v>-2.2433260972824058</v>
       </c>
       <c r="DC7" s="58">
         <f>IFERROR('Tabel 5'!DC7/'Tabel 5'!DB7*100-100,"")</f>
+        <v>-1.9689629022137183</v>
+      </c>
+      <c r="DD7" s="58">
+        <f>IFERROR('Tabel 5'!DD7/'Tabel 5'!DC7*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD7" s="58" t="str">
-        <f>IFERROR('Tabel 5'!DD7/'Tabel 5'!DC7*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE7" s="58" t="str">
         <f>IFERROR('Tabel 5'!DE7/'Tabel 5'!DD7*100-100,"")</f>
@@ -32677,15 +32715,15 @@
       </c>
       <c r="DB8" s="54">
         <f>IFERROR('Tabel 5'!DB8/'Tabel 5'!DA8*100-100,"")</f>
-        <v>0.84100896574288697</v>
+        <v>1.4107985370194598</v>
       </c>
       <c r="DC8" s="54">
         <f>IFERROR('Tabel 5'!DC8/'Tabel 5'!DB8*100-100,"")</f>
+        <v>0.36428558350661433</v>
+      </c>
+      <c r="DD8" s="54">
+        <f>IFERROR('Tabel 5'!DD8/'Tabel 5'!DC8*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD8" s="54" t="str">
-        <f>IFERROR('Tabel 5'!DD8/'Tabel 5'!DC8*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE8" s="54" t="str">
         <f>IFERROR('Tabel 5'!DE8/'Tabel 5'!DD8*100-100,"")</f>
@@ -33116,15 +33154,15 @@
       </c>
       <c r="DB9" s="58">
         <f>IFERROR('Tabel 5'!DB9/'Tabel 5'!DA9*100-100,"")</f>
-        <v>2.3495251961658283</v>
+        <v>1.2207300280039419</v>
       </c>
       <c r="DC9" s="58">
         <f>IFERROR('Tabel 5'!DC9/'Tabel 5'!DB9*100-100,"")</f>
+        <v>-1.7554256570046505</v>
+      </c>
+      <c r="DD9" s="58">
+        <f>IFERROR('Tabel 5'!DD9/'Tabel 5'!DC9*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD9" s="58" t="str">
-        <f>IFERROR('Tabel 5'!DD9/'Tabel 5'!DC9*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE9" s="58" t="str">
         <f>IFERROR('Tabel 5'!DE9/'Tabel 5'!DD9*100-100,"")</f>
@@ -33555,15 +33593,15 @@
       </c>
       <c r="DB10" s="54">
         <f>IFERROR('Tabel 5'!DB10/'Tabel 5'!DA10*100-100,"")</f>
-        <v>-2.3487500851805834</v>
+        <v>-13.937886704028273</v>
       </c>
       <c r="DC10" s="54">
         <f>IFERROR('Tabel 5'!DC10/'Tabel 5'!DB10*100-100,"")</f>
+        <v>3.4116271525095101</v>
+      </c>
+      <c r="DD10" s="54">
+        <f>IFERROR('Tabel 5'!DD10/'Tabel 5'!DC10*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD10" s="54" t="str">
-        <f>IFERROR('Tabel 5'!DD10/'Tabel 5'!DC10*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE10" s="54" t="str">
         <f>IFERROR('Tabel 5'!DE10/'Tabel 5'!DD10*100-100,"")</f>
@@ -33994,15 +34032,15 @@
       </c>
       <c r="DB11" s="58">
         <f>IFERROR('Tabel 5'!DB11/'Tabel 5'!DA11*100-100,"")</f>
-        <v>-0.21153910443909751</v>
+        <v>6.7568826958797672</v>
       </c>
       <c r="DC11" s="58">
         <f>IFERROR('Tabel 5'!DC11/'Tabel 5'!DB11*100-100,"")</f>
+        <v>6.0464895986427365</v>
+      </c>
+      <c r="DD11" s="58">
+        <f>IFERROR('Tabel 5'!DD11/'Tabel 5'!DC11*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD11" s="58" t="str">
-        <f>IFERROR('Tabel 5'!DD11/'Tabel 5'!DC11*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE11" s="58" t="str">
         <f>IFERROR('Tabel 5'!DE11/'Tabel 5'!DD11*100-100,"")</f>
@@ -34433,15 +34471,15 @@
       </c>
       <c r="DB12" s="54">
         <f>IFERROR('Tabel 5'!DB12/'Tabel 5'!DA12*100-100,"")</f>
-        <v>-0.853978674303292</v>
+        <v>1.1276031942315115</v>
       </c>
       <c r="DC12" s="54">
         <f>IFERROR('Tabel 5'!DC12/'Tabel 5'!DB12*100-100,"")</f>
+        <v>1.1563711275425277</v>
+      </c>
+      <c r="DD12" s="54">
+        <f>IFERROR('Tabel 5'!DD12/'Tabel 5'!DC12*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD12" s="54" t="str">
-        <f>IFERROR('Tabel 5'!DD12/'Tabel 5'!DC12*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE12" s="54" t="str">
         <f>IFERROR('Tabel 5'!DE12/'Tabel 5'!DD12*100-100,"")</f>
@@ -34872,15 +34910,15 @@
       </c>
       <c r="DB13" s="58">
         <f>IFERROR('Tabel 5'!DB13/'Tabel 5'!DA13*100-100,"")</f>
-        <v>2.5163437746888633</v>
+        <v>-1.4306586604795655</v>
       </c>
       <c r="DC13" s="58">
         <f>IFERROR('Tabel 5'!DC13/'Tabel 5'!DB13*100-100,"")</f>
+        <v>0.17110832977995472</v>
+      </c>
+      <c r="DD13" s="58">
+        <f>IFERROR('Tabel 5'!DD13/'Tabel 5'!DC13*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD13" s="58" t="str">
-        <f>IFERROR('Tabel 5'!DD13/'Tabel 5'!DC13*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE13" s="58" t="str">
         <f>IFERROR('Tabel 5'!DE13/'Tabel 5'!DD13*100-100,"")</f>
@@ -35311,15 +35349,15 @@
       </c>
       <c r="DB14" s="54">
         <f>IFERROR('Tabel 5'!DB14/'Tabel 5'!DA14*100-100,"")</f>
-        <v>1.429100578846132</v>
+        <v>0.40704022946380292</v>
       </c>
       <c r="DC14" s="54">
         <f>IFERROR('Tabel 5'!DC14/'Tabel 5'!DB14*100-100,"")</f>
+        <v>-0.39009202144220012</v>
+      </c>
+      <c r="DD14" s="54">
+        <f>IFERROR('Tabel 5'!DD14/'Tabel 5'!DC14*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD14" s="54" t="str">
-        <f>IFERROR('Tabel 5'!DD14/'Tabel 5'!DC14*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE14" s="54" t="str">
         <f>IFERROR('Tabel 5'!DE14/'Tabel 5'!DD14*100-100,"")</f>
@@ -35750,15 +35788,15 @@
       </c>
       <c r="DB15" s="62">
         <f>IFERROR('Tabel 5'!DB15/'Tabel 5'!DA15*100-100,"")</f>
-        <v>5.785554182875785E-2</v>
+        <v>-1.4341056391235014</v>
       </c>
       <c r="DC15" s="62">
         <f>IFERROR('Tabel 5'!DC15/'Tabel 5'!DB15*100-100,"")</f>
+        <v>0.14279205992271216</v>
+      </c>
+      <c r="DD15" s="62">
+        <f>IFERROR('Tabel 5'!DD15/'Tabel 5'!DC15*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DD15" s="62" t="str">
-        <f>IFERROR('Tabel 5'!DD15/'Tabel 5'!DC15*100-100,"")</f>
-        <v/>
       </c>
       <c r="DE15" s="62" t="str">
         <f>IFERROR('Tabel 5'!DE15/'Tabel 5'!DD15*100-100,"")</f>
@@ -35882,7 +35920,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="Z6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AK1" sqref="AK1:AK1048576"/>
+      <selection pane="bottomRight" activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -36128,7 +36166,7 @@
         <v>33</v>
       </c>
       <c r="AJ5" s="76" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="AK5" s="77" t="s">
         <v>88</v>
@@ -36249,7 +36287,7 @@
       </c>
       <c r="AJ6" s="117">
         <f>AVERAGE('Tabel 6'!CZ6:DB6)</f>
-        <v>-46.310526733009006</v>
+        <v>-45.155620862648256</v>
       </c>
       <c r="AK6" s="117"/>
       <c r="AL6" s="66" t="s">
@@ -36370,7 +36408,7 @@
       </c>
       <c r="AJ7" s="118">
         <f>AVERAGE('Tabel 6'!CZ7:DB7)</f>
-        <v>-16.092251458200831</v>
+        <v>-16.751899893435223</v>
       </c>
       <c r="AK7" s="118"/>
       <c r="AL7" s="67" t="s">
@@ -36491,7 +36529,7 @@
       </c>
       <c r="AJ8" s="117">
         <f>AVERAGE('Tabel 6'!CZ8:DB8)</f>
-        <v>4.5725474558491941</v>
+        <v>4.7802587082615604</v>
       </c>
       <c r="AK8" s="117"/>
       <c r="AL8" s="66" t="s">
@@ -36612,7 +36650,7 @@
       </c>
       <c r="AJ9" s="118">
         <f>AVERAGE('Tabel 6'!CZ9:DB9)</f>
-        <v>-18.626532218159507</v>
+        <v>-18.930803518680332</v>
       </c>
       <c r="AK9" s="118"/>
       <c r="AL9" s="67" t="s">
@@ -36733,7 +36771,7 @@
       </c>
       <c r="AJ10" s="117">
         <f>AVERAGE('Tabel 6'!CZ10:DB10)</f>
-        <v>-7.6770044270501545</v>
+        <v>-11.385451927993321</v>
       </c>
       <c r="AK10" s="117"/>
       <c r="AL10" s="66" t="s">
@@ -36854,7 +36892,7 @@
       </c>
       <c r="AJ11" s="118">
         <f>AVERAGE('Tabel 6'!CZ11:DB11)</f>
-        <v>-38.520838308132397</v>
+        <v>-37.182211334960236</v>
       </c>
       <c r="AK11" s="118"/>
       <c r="AL11" s="67" t="s">
@@ -36975,7 +37013,7 @@
       </c>
       <c r="AJ12" s="117">
         <f>AVERAGE('Tabel 6'!CZ12:DB12)</f>
-        <v>2.4679408826770746</v>
+        <v>3.1305947185759067</v>
       </c>
       <c r="AK12" s="117"/>
       <c r="AL12" s="66" t="s">
@@ -37096,7 +37134,7 @@
       </c>
       <c r="AJ13" s="118">
         <f>AVERAGE('Tabel 6'!CZ13:DB13)</f>
-        <v>11.167777371866839</v>
+        <v>9.8673906107254172</v>
       </c>
       <c r="AK13" s="118"/>
       <c r="AL13" s="67" t="s">
@@ -37217,7 +37255,7 @@
       </c>
       <c r="AJ14" s="117">
         <f>AVERAGE('Tabel 6'!CZ14:DB14)</f>
-        <v>-31.577184390580001</v>
+        <v>-31.814601509990087</v>
       </c>
       <c r="AK14" s="117"/>
       <c r="AL14" s="66" t="s">
@@ -37338,7 +37376,7 @@
       </c>
       <c r="AJ15" s="119">
         <f>AVERAGE('Tabel 6'!CZ15:DB15)</f>
-        <v>-9.6068093424040342</v>
+        <v>-10.06733208233031</v>
       </c>
       <c r="AK15" s="119"/>
       <c r="AL15" s="68" t="s">
@@ -37475,7 +37513,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DB1" sqref="DB1:DE1048576"/>
+      <selection pane="topRight" activeCell="DB12" sqref="DB12:DB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -37485,8 +37523,8 @@
     <col min="62" max="62" width="8.90625" collapsed="1"/>
     <col min="80" max="82" width="9.08984375" customWidth="1"/>
     <col min="83" max="83" width="9.36328125" customWidth="1"/>
-    <col min="84" max="105" width="9.08984375" customWidth="1"/>
-    <col min="106" max="109" width="9.08984375" hidden="1" customWidth="1"/>
+    <col min="84" max="106" width="9.08984375" customWidth="1"/>
+    <col min="107" max="109" width="9.08984375" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="36.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -38800,7 +38838,9 @@
       <c r="DA8" s="92">
         <v>132.47730471618411</v>
       </c>
-      <c r="DB8" s="92"/>
+      <c r="DB8" s="92">
+        <v>142.45978579336767</v>
+      </c>
       <c r="DC8" s="92"/>
       <c r="DD8" s="92"/>
       <c r="DE8" s="92"/>
@@ -39201,7 +39241,9 @@
       <c r="DA9" s="92">
         <v>166.94734800657423</v>
       </c>
-      <c r="DB9" s="92"/>
+      <c r="DB9" s="92">
+        <v>160.04899630210514</v>
+      </c>
       <c r="DC9" s="92"/>
       <c r="DD9" s="92"/>
       <c r="DE9" s="92"/>
@@ -39830,7 +39872,9 @@
       <c r="DA12" s="92">
         <v>152.08333333333331</v>
       </c>
-      <c r="DB12" s="92"/>
+      <c r="DB12" s="92">
+        <v>157.21716514954485</v>
+      </c>
       <c r="DC12" s="92"/>
       <c r="DD12" s="92"/>
       <c r="DE12" s="92"/>
@@ -40231,7 +40275,9 @@
       <c r="DA13" s="92">
         <v>161.328125</v>
       </c>
-      <c r="DB13" s="92"/>
+      <c r="DB13" s="92">
+        <v>159.42782834850456</v>
+      </c>
       <c r="DC13" s="92"/>
       <c r="DD13" s="92"/>
       <c r="DE13" s="92"/>

--- a/data/BI_SPE_raw.xlsx
+++ b/data/BI_SPE_raw.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RetnoAndrini\Departemen Statistik\Survei\SPE\2020\9. September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RetnoAndrini\Departemen Statistik\Survei\SPE\2020\10. Oktober\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -448,9 +448,6 @@
     <t>Des*</t>
   </si>
   <si>
-    <t>Okt*</t>
-  </si>
-  <si>
     <t>Q4*</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   </si>
   <si>
     <t>Makassar</t>
+  </si>
+  <si>
+    <t>Nov*</t>
   </si>
 </sst>
 </file>
@@ -1771,6 +1771,12 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1859,12 +1865,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5247,7 +5247,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DD1" sqref="DD1:DE1048576"/>
+      <selection pane="topRight" activeCell="DC5" sqref="DC5:DD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -5255,8 +5255,8 @@
     <col min="1" max="1" width="44.453125" customWidth="1"/>
     <col min="2" max="62" width="9.36328125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="63" max="63" width="9.36328125" customWidth="1" collapsed="1"/>
-    <col min="64" max="107" width="9.36328125" customWidth="1"/>
-    <col min="108" max="109" width="9.36328125" hidden="1" customWidth="1"/>
+    <col min="64" max="108" width="9.36328125" customWidth="1"/>
+    <col min="109" max="109" width="9.36328125" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="43.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5488,141 +5488,141 @@
       <c r="DE3" s="2"/>
     </row>
     <row r="4" spans="1:110" ht="18" customHeight="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="138">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="140">
         <v>2013</v>
       </c>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="138">
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="140">
         <v>2014</v>
       </c>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="135"/>
-      <c r="AI4" s="135"/>
-      <c r="AJ4" s="135"/>
-      <c r="AK4" s="135"/>
-      <c r="AL4" s="138">
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="137"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137"/>
+      <c r="AK4" s="137"/>
+      <c r="AL4" s="140">
         <v>2015</v>
       </c>
-      <c r="AM4" s="135"/>
-      <c r="AN4" s="135"/>
-      <c r="AO4" s="135"/>
-      <c r="AP4" s="135"/>
-      <c r="AQ4" s="135"/>
-      <c r="AR4" s="135"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="135"/>
-      <c r="AU4" s="135"/>
-      <c r="AV4" s="135"/>
-      <c r="AW4" s="135"/>
-      <c r="AX4" s="138">
+      <c r="AM4" s="137"/>
+      <c r="AN4" s="137"/>
+      <c r="AO4" s="137"/>
+      <c r="AP4" s="137"/>
+      <c r="AQ4" s="137"/>
+      <c r="AR4" s="137"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="137"/>
+      <c r="AU4" s="137"/>
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="137"/>
+      <c r="AX4" s="140">
         <v>2016</v>
       </c>
-      <c r="AY4" s="135"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="135"/>
-      <c r="BB4" s="135"/>
-      <c r="BC4" s="135"/>
-      <c r="BD4" s="135"/>
-      <c r="BE4" s="135"/>
-      <c r="BF4" s="135"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="135"/>
-      <c r="BI4" s="135"/>
-      <c r="BJ4" s="138">
+      <c r="AY4" s="137"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="137"/>
+      <c r="BB4" s="137"/>
+      <c r="BC4" s="137"/>
+      <c r="BD4" s="137"/>
+      <c r="BE4" s="137"/>
+      <c r="BF4" s="137"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="137"/>
+      <c r="BI4" s="137"/>
+      <c r="BJ4" s="140">
         <v>2017</v>
       </c>
-      <c r="BK4" s="135"/>
-      <c r="BL4" s="135"/>
-      <c r="BM4" s="135"/>
-      <c r="BN4" s="135"/>
-      <c r="BO4" s="135"/>
-      <c r="BP4" s="135"/>
-      <c r="BQ4" s="135"/>
-      <c r="BR4" s="135"/>
-      <c r="BS4" s="135"/>
-      <c r="BT4" s="135"/>
-      <c r="BU4" s="135"/>
-      <c r="BV4" s="138">
+      <c r="BK4" s="137"/>
+      <c r="BL4" s="137"/>
+      <c r="BM4" s="137"/>
+      <c r="BN4" s="137"/>
+      <c r="BO4" s="137"/>
+      <c r="BP4" s="137"/>
+      <c r="BQ4" s="137"/>
+      <c r="BR4" s="137"/>
+      <c r="BS4" s="137"/>
+      <c r="BT4" s="137"/>
+      <c r="BU4" s="137"/>
+      <c r="BV4" s="140">
         <v>2018</v>
       </c>
-      <c r="BW4" s="135"/>
-      <c r="BX4" s="135"/>
-      <c r="BY4" s="135"/>
-      <c r="BZ4" s="135"/>
-      <c r="CA4" s="135"/>
-      <c r="CB4" s="135"/>
-      <c r="CC4" s="135"/>
-      <c r="CD4" s="139"/>
-      <c r="CE4" s="135"/>
-      <c r="CF4" s="135"/>
-      <c r="CG4" s="135"/>
-      <c r="CH4" s="138">
+      <c r="BW4" s="137"/>
+      <c r="BX4" s="137"/>
+      <c r="BY4" s="137"/>
+      <c r="BZ4" s="137"/>
+      <c r="CA4" s="137"/>
+      <c r="CB4" s="137"/>
+      <c r="CC4" s="137"/>
+      <c r="CD4" s="141"/>
+      <c r="CE4" s="137"/>
+      <c r="CF4" s="137"/>
+      <c r="CG4" s="137"/>
+      <c r="CH4" s="140">
         <v>2019</v>
       </c>
-      <c r="CI4" s="135"/>
-      <c r="CJ4" s="135"/>
-      <c r="CK4" s="135"/>
-      <c r="CL4" s="135"/>
-      <c r="CM4" s="135"/>
-      <c r="CN4" s="135"/>
-      <c r="CO4" s="135"/>
-      <c r="CP4" s="139"/>
-      <c r="CQ4" s="135"/>
-      <c r="CR4" s="135"/>
-      <c r="CS4" s="135"/>
-      <c r="CT4" s="138">
+      <c r="CI4" s="137"/>
+      <c r="CJ4" s="137"/>
+      <c r="CK4" s="137"/>
+      <c r="CL4" s="137"/>
+      <c r="CM4" s="137"/>
+      <c r="CN4" s="137"/>
+      <c r="CO4" s="137"/>
+      <c r="CP4" s="141"/>
+      <c r="CQ4" s="137"/>
+      <c r="CR4" s="137"/>
+      <c r="CS4" s="137"/>
+      <c r="CT4" s="140">
         <v>2020</v>
       </c>
-      <c r="CU4" s="135"/>
-      <c r="CV4" s="135"/>
-      <c r="CW4" s="135"/>
-      <c r="CX4" s="135"/>
-      <c r="CY4" s="135"/>
-      <c r="CZ4" s="135"/>
-      <c r="DA4" s="135"/>
-      <c r="DB4" s="139"/>
-      <c r="DC4" s="135"/>
-      <c r="DD4" s="135"/>
-      <c r="DE4" s="135"/>
-      <c r="DF4" s="136" t="s">
+      <c r="CU4" s="137"/>
+      <c r="CV4" s="137"/>
+      <c r="CW4" s="137"/>
+      <c r="CX4" s="137"/>
+      <c r="CY4" s="137"/>
+      <c r="CZ4" s="137"/>
+      <c r="DA4" s="137"/>
+      <c r="DB4" s="141"/>
+      <c r="DC4" s="137"/>
+      <c r="DD4" s="137"/>
+      <c r="DE4" s="137"/>
+      <c r="DF4" s="138" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:110" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="133"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="71" t="s">
         <v>2</v>
       </c>
@@ -5939,15 +5939,15 @@
         <v>12</v>
       </c>
       <c r="DC5" s="50" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="DD5" s="50" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="DE5" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="DF5" s="137"/>
+      <c r="DF5" s="139"/>
     </row>
     <row r="6" spans="1:110" ht="18" customHeight="1">
       <c r="A6" s="69" t="s">
@@ -6346,9 +6346,11 @@
         <v>118.65843641163349</v>
       </c>
       <c r="DC6" s="54">
-        <v>118.64920734736396</v>
-      </c>
-      <c r="DD6" s="54"/>
+        <v>118.70683440497544</v>
+      </c>
+      <c r="DD6" s="54">
+        <v>121.51089017057114</v>
+      </c>
       <c r="DE6" s="54"/>
       <c r="DF6" s="66" t="s">
         <v>56</v>
@@ -6751,9 +6753,11 @@
         <v>235.33099884699772</v>
       </c>
       <c r="DC7" s="58">
-        <v>235.41632556134351</v>
-      </c>
-      <c r="DD7" s="58"/>
+        <v>222.74394900394017</v>
+      </c>
+      <c r="DD7" s="58">
+        <v>221.73405308703073</v>
+      </c>
       <c r="DE7" s="58"/>
       <c r="DF7" s="67" t="s">
         <v>24</v>
@@ -7156,9 +7160,11 @@
         <v>67.500582718534716</v>
       </c>
       <c r="DC8" s="54">
-        <v>69.970043693545435</v>
-      </c>
-      <c r="DD8" s="54"/>
+        <v>71.029015258345865</v>
+      </c>
+      <c r="DD8" s="54">
+        <v>73.348072308849268</v>
+      </c>
       <c r="DE8" s="54"/>
       <c r="DF8" s="66" t="s">
         <v>25</v>
@@ -7561,9 +7567,11 @@
         <v>241.23642758566348</v>
       </c>
       <c r="DC9" s="58">
-        <v>240.67172379319706</v>
-      </c>
-      <c r="DD9" s="58"/>
+        <v>212.706196602604</v>
+      </c>
+      <c r="DD9" s="58">
+        <v>206.48834183426487</v>
+      </c>
       <c r="DE9" s="58"/>
       <c r="DF9" s="67" t="s">
         <v>26</v>
@@ -7966,9 +7974,11 @@
         <v>135.68276977476407</v>
       </c>
       <c r="DC10" s="54">
-        <v>136.74975293646401</v>
-      </c>
-      <c r="DD10" s="54"/>
+        <v>132.48074363720579</v>
+      </c>
+      <c r="DD10" s="54">
+        <v>131.93488150342881</v>
+      </c>
       <c r="DE10" s="54"/>
       <c r="DF10" s="66" t="s">
         <v>27</v>
@@ -8371,9 +8381,11 @@
         <v>64.429920380589195</v>
       </c>
       <c r="DC11" s="58">
-        <v>64.174479386252685</v>
-      </c>
-      <c r="DD11" s="58"/>
+        <v>65.04038876002133</v>
+      </c>
+      <c r="DD11" s="58">
+        <v>64.291758693644482</v>
+      </c>
       <c r="DE11" s="58"/>
       <c r="DF11" s="67" t="s">
         <v>28</v>
@@ -8776,9 +8788,11 @@
         <v>79.261945804321314</v>
       </c>
       <c r="DC12" s="54">
-        <v>79.717882979510719</v>
-      </c>
-      <c r="DD12" s="54"/>
+        <v>77.731931582534358</v>
+      </c>
+      <c r="DD12" s="54">
+        <v>79.38430263237197</v>
+      </c>
       <c r="DE12" s="54"/>
       <c r="DF12" s="66" t="s">
         <v>29</v>
@@ -9181,9 +9195,11 @@
         <v>64.796720287549604</v>
       </c>
       <c r="DC13" s="58">
-        <v>64.245377110304332</v>
-      </c>
-      <c r="DD13" s="58"/>
+        <v>66.348474315797517</v>
+      </c>
+      <c r="DD13" s="58">
+        <v>69.517679400867394</v>
+      </c>
       <c r="DE13" s="58"/>
       <c r="DF13" s="67" t="s">
         <v>30</v>
@@ -9586,9 +9602,11 @@
         <v>193.82974533102043</v>
       </c>
       <c r="DC14" s="115">
-        <v>194.10651881712155</v>
-      </c>
-      <c r="DD14" s="115"/>
+        <v>183.47160216961299</v>
+      </c>
+      <c r="DD14" s="115">
+        <v>182.66497428989769</v>
+      </c>
       <c r="DE14" s="115"/>
       <c r="DF14" s="68" t="s">
         <v>31</v>
@@ -9712,7 +9730,7 @@
     </row>
     <row r="16" spans="1:110" s="30" customFormat="1" ht="12">
       <c r="A16" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -9860,7 +9878,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CZ6" sqref="CZ6:DB6"/>
+      <selection pane="topRight" activeCell="DC5" sqref="DC5:DD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -9876,8 +9894,8 @@
     <col min="79" max="79" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="80" max="100" width="7" customWidth="1"/>
     <col min="101" max="101" width="7.08984375" customWidth="1"/>
-    <col min="102" max="107" width="7" customWidth="1"/>
-    <col min="108" max="109" width="7" hidden="1" customWidth="1"/>
+    <col min="102" max="108" width="7" customWidth="1"/>
+    <col min="109" max="109" width="7" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="45.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10043,141 +10061,141 @@
       <c r="BX3" s="3"/>
     </row>
     <row r="4" spans="1:112" ht="18" customHeight="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="138">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="140">
         <v>2013</v>
       </c>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="138">
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="140">
         <v>2014</v>
       </c>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="135"/>
-      <c r="AI4" s="135"/>
-      <c r="AJ4" s="135"/>
-      <c r="AK4" s="135"/>
-      <c r="AL4" s="138">
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="137"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137"/>
+      <c r="AK4" s="137"/>
+      <c r="AL4" s="140">
         <v>2015</v>
       </c>
-      <c r="AM4" s="135"/>
-      <c r="AN4" s="135"/>
-      <c r="AO4" s="135"/>
-      <c r="AP4" s="135"/>
-      <c r="AQ4" s="135"/>
-      <c r="AR4" s="135"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="135"/>
-      <c r="AU4" s="135"/>
-      <c r="AV4" s="135"/>
-      <c r="AW4" s="135"/>
-      <c r="AX4" s="138">
+      <c r="AM4" s="137"/>
+      <c r="AN4" s="137"/>
+      <c r="AO4" s="137"/>
+      <c r="AP4" s="137"/>
+      <c r="AQ4" s="137"/>
+      <c r="AR4" s="137"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="137"/>
+      <c r="AU4" s="137"/>
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="137"/>
+      <c r="AX4" s="140">
         <v>2016</v>
       </c>
-      <c r="AY4" s="135"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="135"/>
-      <c r="BB4" s="135"/>
-      <c r="BC4" s="135"/>
-      <c r="BD4" s="135"/>
-      <c r="BE4" s="135"/>
-      <c r="BF4" s="135"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="135"/>
-      <c r="BI4" s="135"/>
-      <c r="BJ4" s="138">
+      <c r="AY4" s="137"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="137"/>
+      <c r="BB4" s="137"/>
+      <c r="BC4" s="137"/>
+      <c r="BD4" s="137"/>
+      <c r="BE4" s="137"/>
+      <c r="BF4" s="137"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="137"/>
+      <c r="BI4" s="137"/>
+      <c r="BJ4" s="140">
         <v>2017</v>
       </c>
-      <c r="BK4" s="135"/>
-      <c r="BL4" s="135"/>
-      <c r="BM4" s="135"/>
-      <c r="BN4" s="135"/>
-      <c r="BO4" s="135"/>
-      <c r="BP4" s="135"/>
-      <c r="BQ4" s="135"/>
-      <c r="BR4" s="135"/>
-      <c r="BS4" s="135"/>
-      <c r="BT4" s="135"/>
-      <c r="BU4" s="135"/>
-      <c r="BV4" s="138">
+      <c r="BK4" s="137"/>
+      <c r="BL4" s="137"/>
+      <c r="BM4" s="137"/>
+      <c r="BN4" s="137"/>
+      <c r="BO4" s="137"/>
+      <c r="BP4" s="137"/>
+      <c r="BQ4" s="137"/>
+      <c r="BR4" s="137"/>
+      <c r="BS4" s="137"/>
+      <c r="BT4" s="137"/>
+      <c r="BU4" s="137"/>
+      <c r="BV4" s="140">
         <v>2018</v>
       </c>
-      <c r="BW4" s="135"/>
-      <c r="BX4" s="135"/>
-      <c r="BY4" s="135"/>
-      <c r="BZ4" s="135"/>
-      <c r="CA4" s="135"/>
-      <c r="CB4" s="135"/>
-      <c r="CC4" s="135"/>
-      <c r="CD4" s="139"/>
-      <c r="CE4" s="135"/>
-      <c r="CF4" s="135"/>
-      <c r="CG4" s="135"/>
-      <c r="CH4" s="138">
+      <c r="BW4" s="137"/>
+      <c r="BX4" s="137"/>
+      <c r="BY4" s="137"/>
+      <c r="BZ4" s="137"/>
+      <c r="CA4" s="137"/>
+      <c r="CB4" s="137"/>
+      <c r="CC4" s="137"/>
+      <c r="CD4" s="141"/>
+      <c r="CE4" s="137"/>
+      <c r="CF4" s="137"/>
+      <c r="CG4" s="137"/>
+      <c r="CH4" s="140">
         <v>2019</v>
       </c>
-      <c r="CI4" s="135"/>
-      <c r="CJ4" s="135"/>
-      <c r="CK4" s="135"/>
-      <c r="CL4" s="135"/>
-      <c r="CM4" s="135"/>
-      <c r="CN4" s="135"/>
-      <c r="CO4" s="135"/>
-      <c r="CP4" s="139"/>
-      <c r="CQ4" s="135"/>
-      <c r="CR4" s="135"/>
-      <c r="CS4" s="135"/>
-      <c r="CT4" s="138">
+      <c r="CI4" s="137"/>
+      <c r="CJ4" s="137"/>
+      <c r="CK4" s="137"/>
+      <c r="CL4" s="137"/>
+      <c r="CM4" s="137"/>
+      <c r="CN4" s="137"/>
+      <c r="CO4" s="137"/>
+      <c r="CP4" s="141"/>
+      <c r="CQ4" s="137"/>
+      <c r="CR4" s="137"/>
+      <c r="CS4" s="137"/>
+      <c r="CT4" s="140">
         <v>2020</v>
       </c>
-      <c r="CU4" s="135"/>
-      <c r="CV4" s="135"/>
-      <c r="CW4" s="135"/>
-      <c r="CX4" s="135"/>
-      <c r="CY4" s="135"/>
-      <c r="CZ4" s="135"/>
-      <c r="DA4" s="135"/>
-      <c r="DB4" s="139"/>
-      <c r="DC4" s="135"/>
-      <c r="DD4" s="135"/>
-      <c r="DE4" s="135"/>
-      <c r="DF4" s="140" t="s">
+      <c r="CU4" s="137"/>
+      <c r="CV4" s="137"/>
+      <c r="CW4" s="137"/>
+      <c r="CX4" s="137"/>
+      <c r="CY4" s="137"/>
+      <c r="CZ4" s="137"/>
+      <c r="DA4" s="137"/>
+      <c r="DB4" s="141"/>
+      <c r="DC4" s="137"/>
+      <c r="DD4" s="137"/>
+      <c r="DE4" s="137"/>
+      <c r="DF4" s="142" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:112" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="133"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="71" t="s">
         <v>2</v>
       </c>
@@ -10494,15 +10512,15 @@
         <v>12</v>
       </c>
       <c r="DC5" s="50" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="DD5" s="50" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="DE5" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="DF5" s="137"/>
+      <c r="DF5" s="139"/>
     </row>
     <row r="6" spans="1:112" ht="18" customHeight="1">
       <c r="A6" s="69" t="s">
@@ -10918,11 +10936,11 @@
       </c>
       <c r="DC6" s="54">
         <f>IFERROR('Tabel 1'!DC6/'Tabel 1'!CQ6*100-100,"")</f>
-        <v>-22.887844559842137</v>
+        <v>-22.850391746431555</v>
       </c>
       <c r="DD6" s="54">
         <f>IFERROR('Tabel 1'!DD6/'Tabel 1'!CR6*100-100,"")</f>
-        <v>-100</v>
+        <v>-21.339335412028433</v>
       </c>
       <c r="DE6" s="54">
         <f>IFERROR('Tabel 1'!DE6/'Tabel 1'!CS6*100-100,"")</f>
@@ -11346,11 +11364,11 @@
       </c>
       <c r="DC7" s="58">
         <f>IFERROR('Tabel 1'!DC7/'Tabel 1'!CQ7*100-100,"")</f>
-        <v>-0.17766973344727433</v>
+        <v>-5.5510700486501889</v>
       </c>
       <c r="DD7" s="58">
         <f>IFERROR('Tabel 1'!DD7/'Tabel 1'!CR7*100-100,"")</f>
-        <v>-100</v>
+        <v>-6.5066320569849836</v>
       </c>
       <c r="DE7" s="58">
         <f>IFERROR('Tabel 1'!DE7/'Tabel 1'!CS7*100-100,"")</f>
@@ -11774,11 +11792,11 @@
       </c>
       <c r="DC8" s="54">
         <f>IFERROR('Tabel 1'!DC8/'Tabel 1'!CQ8*100-100,"")</f>
-        <v>-18.496708714734638</v>
+        <v>-17.263185576078882</v>
       </c>
       <c r="DD8" s="54">
         <f>IFERROR('Tabel 1'!DD8/'Tabel 1'!CR8*100-100,"")</f>
-        <v>-100</v>
+        <v>-14.176656191744271</v>
       </c>
       <c r="DE8" s="54">
         <f>IFERROR('Tabel 1'!DE8/'Tabel 1'!CS8*100-100,"")</f>
@@ -12202,11 +12220,11 @@
       </c>
       <c r="DC9" s="58">
         <f>IFERROR('Tabel 1'!DC9/'Tabel 1'!CQ9*100-100,"")</f>
-        <v>-21.830136590872812</v>
+        <v>-30.913303513013261</v>
       </c>
       <c r="DD9" s="58">
         <f>IFERROR('Tabel 1'!DD9/'Tabel 1'!CR9*100-100,"")</f>
-        <v>-100</v>
+        <v>-34.04230551916126</v>
       </c>
       <c r="DE9" s="58">
         <f>IFERROR('Tabel 1'!DE9/'Tabel 1'!CS9*100-100,"")</f>
@@ -12630,11 +12648,11 @@
       </c>
       <c r="DC10" s="54">
         <f>IFERROR('Tabel 1'!DC10/'Tabel 1'!CQ10*100-100,"")</f>
-        <v>-20.855975963890685</v>
+        <v>-23.326668358836685</v>
       </c>
       <c r="DD10" s="54">
         <f>IFERROR('Tabel 1'!DD10/'Tabel 1'!CR10*100-100,"")</f>
-        <v>-100</v>
+        <v>-23.761909835487899</v>
       </c>
       <c r="DE10" s="54">
         <f>IFERROR('Tabel 1'!DE10/'Tabel 1'!CS10*100-100,"")</f>
@@ -13058,11 +13076,11 @@
       </c>
       <c r="DC11" s="58">
         <f>IFERROR('Tabel 1'!DC11/'Tabel 1'!CQ11*100-100,"")</f>
-        <v>-41.352307812664037</v>
+        <v>-40.560971647562383</v>
       </c>
       <c r="DD11" s="58">
         <f>IFERROR('Tabel 1'!DD11/'Tabel 1'!CR11*100-100,"")</f>
-        <v>-100</v>
+        <v>-40.968713580553654</v>
       </c>
       <c r="DE11" s="58">
         <f>IFERROR('Tabel 1'!DE11/'Tabel 1'!CS11*100-100,"")</f>
@@ -13486,11 +13504,11 @@
       </c>
       <c r="DC12" s="54">
         <f>IFERROR('Tabel 1'!DC12/'Tabel 1'!CQ12*100-100,"")</f>
-        <v>-52.326120000834003</v>
+        <v>-53.513783358727764</v>
       </c>
       <c r="DD12" s="54">
         <f>IFERROR('Tabel 1'!DD12/'Tabel 1'!CR12*100-100,"")</f>
-        <v>-100</v>
+        <v>-50.980532459498072</v>
       </c>
       <c r="DE12" s="54">
         <f>IFERROR('Tabel 1'!DE12/'Tabel 1'!CS12*100-100,"")</f>
@@ -13914,11 +13932,11 @@
       </c>
       <c r="DC13" s="58">
         <f>IFERROR('Tabel 1'!DC13/'Tabel 1'!CQ13*100-100,"")</f>
-        <v>-59.396038569078769</v>
+        <v>-58.066852226679245</v>
       </c>
       <c r="DD13" s="58">
         <f>IFERROR('Tabel 1'!DD13/'Tabel 1'!CR13*100-100,"")</f>
-        <v>-100</v>
+        <v>-57.300322121238672</v>
       </c>
       <c r="DE13" s="58">
         <f>IFERROR('Tabel 1'!DE13/'Tabel 1'!CS13*100-100,"")</f>
@@ -14342,11 +14360,11 @@
       </c>
       <c r="DC14" s="62">
         <f>IFERROR('Tabel 1'!DC14/'Tabel 1'!CQ14*100-100,"")</f>
-        <v>-10.014550019102288</v>
+        <v>-14.944769600944511</v>
       </c>
       <c r="DD14" s="62">
         <f>IFERROR('Tabel 1'!DD14/'Tabel 1'!CR14*100-100,"")</f>
-        <v>-100</v>
+        <v>-15.659859886113878</v>
       </c>
       <c r="DE14" s="62">
         <f>IFERROR('Tabel 1'!DE14/'Tabel 1'!CS14*100-100,"")</f>
@@ -14475,7 +14493,7 @@
     </row>
     <row r="16" spans="1:112" s="30" customFormat="1" ht="12">
       <c r="A16" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -14622,7 +14640,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC21" sqref="DC21"/>
+      <selection pane="topRight" activeCell="DC5" sqref="DC5:DD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -14635,8 +14653,8 @@
     <col min="74" max="75" width="8.54296875" customWidth="1"/>
     <col min="76" max="76" width="8.6328125" customWidth="1"/>
     <col min="77" max="77" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="80" max="107" width="9.08984375" customWidth="1"/>
-    <col min="108" max="109" width="9.08984375" hidden="1" customWidth="1"/>
+    <col min="80" max="108" width="9.08984375" customWidth="1"/>
+    <col min="109" max="109" width="9.08984375" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14801,141 +14819,141 @@
       <c r="BX3" s="9"/>
     </row>
     <row r="4" spans="1:110" ht="18" customHeight="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="138">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="140">
         <v>2013</v>
       </c>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="138">
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="140">
         <v>2014</v>
       </c>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="135"/>
-      <c r="AI4" s="135"/>
-      <c r="AJ4" s="135"/>
-      <c r="AK4" s="135"/>
-      <c r="AL4" s="138">
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="137"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137"/>
+      <c r="AK4" s="137"/>
+      <c r="AL4" s="140">
         <v>2015</v>
       </c>
-      <c r="AM4" s="135"/>
-      <c r="AN4" s="135"/>
-      <c r="AO4" s="135"/>
-      <c r="AP4" s="135"/>
-      <c r="AQ4" s="135"/>
-      <c r="AR4" s="135"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="135"/>
-      <c r="AU4" s="135"/>
-      <c r="AV4" s="135"/>
-      <c r="AW4" s="135"/>
-      <c r="AX4" s="138">
+      <c r="AM4" s="137"/>
+      <c r="AN4" s="137"/>
+      <c r="AO4" s="137"/>
+      <c r="AP4" s="137"/>
+      <c r="AQ4" s="137"/>
+      <c r="AR4" s="137"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="137"/>
+      <c r="AU4" s="137"/>
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="137"/>
+      <c r="AX4" s="140">
         <v>2016</v>
       </c>
-      <c r="AY4" s="135"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="135"/>
-      <c r="BB4" s="135"/>
-      <c r="BC4" s="135"/>
-      <c r="BD4" s="135"/>
-      <c r="BE4" s="135"/>
-      <c r="BF4" s="135"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="135"/>
-      <c r="BI4" s="135"/>
-      <c r="BJ4" s="138">
+      <c r="AY4" s="137"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="137"/>
+      <c r="BB4" s="137"/>
+      <c r="BC4" s="137"/>
+      <c r="BD4" s="137"/>
+      <c r="BE4" s="137"/>
+      <c r="BF4" s="137"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="137"/>
+      <c r="BI4" s="137"/>
+      <c r="BJ4" s="140">
         <v>2017</v>
       </c>
-      <c r="BK4" s="135"/>
-      <c r="BL4" s="135"/>
-      <c r="BM4" s="135"/>
-      <c r="BN4" s="135"/>
-      <c r="BO4" s="135"/>
-      <c r="BP4" s="135"/>
-      <c r="BQ4" s="135"/>
-      <c r="BR4" s="135"/>
-      <c r="BS4" s="135"/>
-      <c r="BT4" s="135"/>
-      <c r="BU4" s="135"/>
-      <c r="BV4" s="138">
+      <c r="BK4" s="137"/>
+      <c r="BL4" s="137"/>
+      <c r="BM4" s="137"/>
+      <c r="BN4" s="137"/>
+      <c r="BO4" s="137"/>
+      <c r="BP4" s="137"/>
+      <c r="BQ4" s="137"/>
+      <c r="BR4" s="137"/>
+      <c r="BS4" s="137"/>
+      <c r="BT4" s="137"/>
+      <c r="BU4" s="137"/>
+      <c r="BV4" s="140">
         <v>2018</v>
       </c>
-      <c r="BW4" s="135"/>
-      <c r="BX4" s="135"/>
-      <c r="BY4" s="135"/>
-      <c r="BZ4" s="135"/>
-      <c r="CA4" s="135"/>
-      <c r="CB4" s="135"/>
-      <c r="CC4" s="135"/>
-      <c r="CD4" s="139"/>
-      <c r="CE4" s="135"/>
-      <c r="CF4" s="135"/>
-      <c r="CG4" s="135"/>
-      <c r="CH4" s="138">
+      <c r="BW4" s="137"/>
+      <c r="BX4" s="137"/>
+      <c r="BY4" s="137"/>
+      <c r="BZ4" s="137"/>
+      <c r="CA4" s="137"/>
+      <c r="CB4" s="137"/>
+      <c r="CC4" s="137"/>
+      <c r="CD4" s="141"/>
+      <c r="CE4" s="137"/>
+      <c r="CF4" s="137"/>
+      <c r="CG4" s="137"/>
+      <c r="CH4" s="140">
         <v>2019</v>
       </c>
-      <c r="CI4" s="135"/>
-      <c r="CJ4" s="135"/>
-      <c r="CK4" s="135"/>
-      <c r="CL4" s="135"/>
-      <c r="CM4" s="135"/>
-      <c r="CN4" s="135"/>
-      <c r="CO4" s="135"/>
-      <c r="CP4" s="139"/>
-      <c r="CQ4" s="135"/>
-      <c r="CR4" s="135"/>
-      <c r="CS4" s="135"/>
-      <c r="CT4" s="138">
+      <c r="CI4" s="137"/>
+      <c r="CJ4" s="137"/>
+      <c r="CK4" s="137"/>
+      <c r="CL4" s="137"/>
+      <c r="CM4" s="137"/>
+      <c r="CN4" s="137"/>
+      <c r="CO4" s="137"/>
+      <c r="CP4" s="141"/>
+      <c r="CQ4" s="137"/>
+      <c r="CR4" s="137"/>
+      <c r="CS4" s="137"/>
+      <c r="CT4" s="140">
         <v>2020</v>
       </c>
-      <c r="CU4" s="135"/>
-      <c r="CV4" s="135"/>
-      <c r="CW4" s="135"/>
-      <c r="CX4" s="135"/>
-      <c r="CY4" s="135"/>
-      <c r="CZ4" s="135"/>
-      <c r="DA4" s="135"/>
-      <c r="DB4" s="139"/>
-      <c r="DC4" s="135"/>
-      <c r="DD4" s="135"/>
-      <c r="DE4" s="135"/>
-      <c r="DF4" s="140" t="s">
+      <c r="CU4" s="137"/>
+      <c r="CV4" s="137"/>
+      <c r="CW4" s="137"/>
+      <c r="CX4" s="137"/>
+      <c r="CY4" s="137"/>
+      <c r="CZ4" s="137"/>
+      <c r="DA4" s="137"/>
+      <c r="DB4" s="141"/>
+      <c r="DC4" s="137"/>
+      <c r="DD4" s="137"/>
+      <c r="DE4" s="137"/>
+      <c r="DF4" s="142" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:110" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="133"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="71" t="s">
         <v>2</v>
       </c>
@@ -15252,15 +15270,15 @@
         <v>12</v>
       </c>
       <c r="DC5" s="50" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="DD5" s="50" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="DE5" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="DF5" s="137"/>
+      <c r="DF5" s="139"/>
     </row>
     <row r="6" spans="1:110" ht="18" customHeight="1">
       <c r="A6" s="69" t="s">
@@ -15685,17 +15703,17 @@
         <f>IFERROR('Tabel 1'!DB6/'Tabel 1'!DA6*100-100,"")</f>
         <v>0.36330025167097801</v>
       </c>
-      <c r="DC6" s="162">
+      <c r="DC6" s="132">
         <f>IFERROR('Tabel 1'!DC6/'Tabel 1'!DB6*100-100,"")</f>
-        <v>-7.7778407912916236E-3</v>
+        <v>4.0787654721867739E-2</v>
       </c>
       <c r="DD6" s="54">
         <f>IFERROR('Tabel 1'!DD6/'Tabel 1'!DC6*100-100,"")</f>
+        <v>2.3621687661466098</v>
+      </c>
+      <c r="DE6" s="54">
+        <f>IFERROR('Tabel 1'!DE6/'Tabel 1'!DD6*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE6" s="54" t="str">
-        <f>IFERROR('Tabel 1'!DE6/'Tabel 1'!DD6*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF6" s="66" t="s">
         <v>56</v>
@@ -16124,17 +16142,17 @@
         <f>IFERROR('Tabel 1'!DB7/'Tabel 1'!DA7*100-100,"")</f>
         <v>-1.2024938561937404</v>
       </c>
-      <c r="DC7" s="163">
+      <c r="DC7" s="133">
         <f>IFERROR('Tabel 1'!DC7/'Tabel 1'!DB7*100-100,"")</f>
-        <v>3.6258170306439297E-2</v>
+        <v>-5.3486578073979558</v>
       </c>
       <c r="DD7" s="58">
         <f>IFERROR('Tabel 1'!DD7/'Tabel 1'!DC7*100-100,"")</f>
+        <v>-0.45338870996292258</v>
+      </c>
+      <c r="DE7" s="58">
+        <f>IFERROR('Tabel 1'!DE7/'Tabel 1'!DD7*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE7" s="58" t="str">
-        <f>IFERROR('Tabel 1'!DE7/'Tabel 1'!DD7*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF7" s="67" t="s">
         <v>24</v>
@@ -16565,15 +16583,15 @@
       </c>
       <c r="DC8" s="54">
         <f>IFERROR('Tabel 1'!DC8/'Tabel 1'!DB8*100-100,"")</f>
-        <v>3.6584291209868809</v>
+        <v>5.2272623401253782</v>
       </c>
       <c r="DD8" s="54">
         <f>IFERROR('Tabel 1'!DD8/'Tabel 1'!DC8*100-100,"")</f>
+        <v>3.2649432658872684</v>
+      </c>
+      <c r="DE8" s="54">
+        <f>IFERROR('Tabel 1'!DE8/'Tabel 1'!DD8*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE8" s="54" t="str">
-        <f>IFERROR('Tabel 1'!DE8/'Tabel 1'!DD8*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF8" s="66" t="s">
         <v>25</v>
@@ -17004,15 +17022,15 @@
       </c>
       <c r="DC9" s="58">
         <f>IFERROR('Tabel 1'!DC9/'Tabel 1'!DB9*100-100,"")</f>
-        <v>-0.23408728031586179</v>
+        <v>-11.826667833127459</v>
       </c>
       <c r="DD9" s="58">
         <f>IFERROR('Tabel 1'!DD9/'Tabel 1'!DC9*100-100,"")</f>
+        <v>-2.9232128013439365</v>
+      </c>
+      <c r="DE9" s="58">
+        <f>IFERROR('Tabel 1'!DE9/'Tabel 1'!DD9*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE9" s="58" t="str">
-        <f>IFERROR('Tabel 1'!DE9/'Tabel 1'!DD9*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF9" s="67" t="s">
         <v>26</v>
@@ -17443,15 +17461,15 @@
       </c>
       <c r="DC10" s="54">
         <f>IFERROR('Tabel 1'!DC10/'Tabel 1'!DB10*100-100,"")</f>
-        <v>0.78638073461438296</v>
+        <v>-2.3599357109776662</v>
       </c>
       <c r="DD10" s="54">
         <f>IFERROR('Tabel 1'!DD10/'Tabel 1'!DC10*100-100,"")</f>
+        <v>-0.4120313026561746</v>
+      </c>
+      <c r="DE10" s="54">
+        <f>IFERROR('Tabel 1'!DE10/'Tabel 1'!DD10*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE10" s="54" t="str">
-        <f>IFERROR('Tabel 1'!DE10/'Tabel 1'!DD10*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF10" s="66" t="s">
         <v>27</v>
@@ -17882,15 +17900,15 @@
       </c>
       <c r="DC11" s="58">
         <f>IFERROR('Tabel 1'!DC11/'Tabel 1'!DB11*100-100,"")</f>
-        <v>-0.39646330901483395</v>
+        <v>0.94749205931977087</v>
       </c>
       <c r="DD11" s="58">
         <f>IFERROR('Tabel 1'!DD11/'Tabel 1'!DC11*100-100,"")</f>
+        <v>-1.1510233574080502</v>
+      </c>
+      <c r="DE11" s="58">
+        <f>IFERROR('Tabel 1'!DE11/'Tabel 1'!DD11*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE11" s="58" t="str">
-        <f>IFERROR('Tabel 1'!DE11/'Tabel 1'!DD11*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF11" s="67" t="s">
         <v>28</v>
@@ -18321,15 +18339,15 @@
       </c>
       <c r="DC12" s="54">
         <f>IFERROR('Tabel 1'!DC12/'Tabel 1'!DB12*100-100,"")</f>
-        <v>0.57522834011041368</v>
+        <v>-1.9303263454624187</v>
       </c>
       <c r="DD12" s="54">
         <f>IFERROR('Tabel 1'!DD12/'Tabel 1'!DC12*100-100,"")</f>
+        <v>2.1257300779707862</v>
+      </c>
+      <c r="DE12" s="54">
+        <f>IFERROR('Tabel 1'!DE12/'Tabel 1'!DD12*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE12" s="54" t="str">
-        <f>IFERROR('Tabel 1'!DE12/'Tabel 1'!DD12*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF12" s="66" t="s">
         <v>29</v>
@@ -18760,15 +18778,15 @@
       </c>
       <c r="DC13" s="58">
         <f>IFERROR('Tabel 1'!DC13/'Tabel 1'!DB13*100-100,"")</f>
-        <v>-0.8508813020143009</v>
+        <v>2.394803350172154</v>
       </c>
       <c r="DD13" s="58">
         <f>IFERROR('Tabel 1'!DD13/'Tabel 1'!DC13*100-100,"")</f>
+        <v>4.7766058191262744</v>
+      </c>
+      <c r="DE13" s="58">
+        <f>IFERROR('Tabel 1'!DE13/'Tabel 1'!DD13*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE13" s="58" t="str">
-        <f>IFERROR('Tabel 1'!DE13/'Tabel 1'!DD13*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF13" s="67" t="s">
         <v>30</v>
@@ -19199,15 +19217,15 @@
       </c>
       <c r="DC14" s="62">
         <f>IFERROR('Tabel 1'!DC14/'Tabel 1'!DB14*100-100,"")</f>
-        <v>0.14279205992271216</v>
+        <v>-5.3439389004602589</v>
       </c>
       <c r="DD14" s="62">
         <f>IFERROR('Tabel 1'!DD14/'Tabel 1'!DC14*100-100,"")</f>
+        <v>-0.43964726430503731</v>
+      </c>
+      <c r="DE14" s="62">
+        <f>IFERROR('Tabel 1'!DE14/'Tabel 1'!DD14*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE14" s="62" t="str">
-        <f>IFERROR('Tabel 1'!DE14/'Tabel 1'!DD14*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF14" s="68" t="s">
         <v>31</v>
@@ -19330,7 +19348,7 @@
     </row>
     <row r="16" spans="1:110" s="30" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -19476,7 +19494,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ6" sqref="AJ6"/>
+      <selection pane="topRight" activeCell="AJ1" sqref="AJ1:AL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -19492,7 +19510,7 @@
   <sheetData>
     <row r="2" spans="1:38" s="16" customFormat="1" ht="16.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -19531,7 +19549,7 @@
       <c r="AJ2" s="46"/>
       <c r="AK2" s="46"/>
       <c r="AL2" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="16.5" customHeight="1" thickBot="1">
@@ -19574,69 +19592,69 @@
       <c r="AK3" s="46"/>
     </row>
     <row r="4" spans="1:38" ht="18" customHeight="1">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="146">
         <v>2012</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="142">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="144">
         <v>2013</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="142">
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="144">
         <v>2014</v>
       </c>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="142">
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="144">
         <v>2015</v>
       </c>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="142">
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="144">
         <v>2016</v>
       </c>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="142">
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="144">
         <v>2017</v>
       </c>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="142">
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="144">
         <v>2018</v>
       </c>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="142">
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="144">
         <v>2019</v>
       </c>
-      <c r="AE4" s="142"/>
-      <c r="AF4" s="142"/>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="142">
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="145"/>
+      <c r="AH4" s="144">
         <v>2020</v>
       </c>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="136" t="s">
+      <c r="AI4" s="144"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="145"/>
+      <c r="AL4" s="138" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="18" customHeight="1">
-      <c r="A5" s="133"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="75" t="s">
         <v>32</v>
       </c>
@@ -19659,7 +19677,7 @@
         <v>34</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="76" t="s">
         <v>32</v>
@@ -19743,9 +19761,9 @@
         <v>34</v>
       </c>
       <c r="AK5" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL5" s="141"/>
+        <v>87</v>
+      </c>
+      <c r="AL5" s="143"/>
     </row>
     <row r="6" spans="1:38" ht="18" customHeight="1">
       <c r="A6" s="69" t="s">
@@ -21080,7 +21098,7 @@
     </row>
     <row r="16" spans="1:38" s="20" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A16" s="124" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="125"/>
       <c r="C16" s="125"/>
@@ -21124,7 +21142,7 @@
     </row>
     <row r="17" spans="1:38" s="20" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -21163,12 +21181,12 @@
       <c r="AJ17" s="47"/>
       <c r="AK17" s="47"/>
       <c r="AL17" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="16.5" hidden="1" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -21207,7 +21225,7 @@
       <c r="AJ18" s="46"/>
       <c r="AK18" s="46"/>
       <c r="AL18" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="16.5" customHeight="1">
@@ -21278,7 +21296,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="CU6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="DD1" sqref="DD1:DE1048576"/>
+      <selection pane="bottomRight" activeCell="DA18" sqref="DA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -21289,30 +21307,30 @@
     <col min="62" max="62" width="9.36328125" customWidth="1" collapsed="1"/>
     <col min="63" max="91" width="9.36328125" customWidth="1"/>
     <col min="92" max="92" width="10.1796875" customWidth="1"/>
-    <col min="93" max="107" width="9.36328125" customWidth="1"/>
-    <col min="108" max="109" width="9.36328125" hidden="1" customWidth="1"/>
+    <col min="93" max="108" width="9.36328125" customWidth="1"/>
+    <col min="109" max="109" width="9.36328125" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="42.08984375" style="34" customWidth="1"/>
     <col min="113" max="113" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:148" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -21561,141 +21579,141 @@
       <c r="DE3" s="3"/>
     </row>
     <row r="4" spans="1:148" ht="18" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="138">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="140">
         <v>2013</v>
       </c>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="138">
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="140">
         <v>2014</v>
       </c>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="135"/>
-      <c r="AI4" s="135"/>
-      <c r="AJ4" s="135"/>
-      <c r="AK4" s="135"/>
-      <c r="AL4" s="138">
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="137"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137"/>
+      <c r="AK4" s="137"/>
+      <c r="AL4" s="140">
         <v>2015</v>
       </c>
-      <c r="AM4" s="135"/>
-      <c r="AN4" s="135"/>
-      <c r="AO4" s="135"/>
-      <c r="AP4" s="135"/>
-      <c r="AQ4" s="135"/>
-      <c r="AR4" s="135"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="135"/>
-      <c r="AU4" s="135"/>
-      <c r="AV4" s="135"/>
-      <c r="AW4" s="135"/>
-      <c r="AX4" s="138">
+      <c r="AM4" s="137"/>
+      <c r="AN4" s="137"/>
+      <c r="AO4" s="137"/>
+      <c r="AP4" s="137"/>
+      <c r="AQ4" s="137"/>
+      <c r="AR4" s="137"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="137"/>
+      <c r="AU4" s="137"/>
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="137"/>
+      <c r="AX4" s="140">
         <v>2016</v>
       </c>
-      <c r="AY4" s="135"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="135"/>
-      <c r="BB4" s="135"/>
-      <c r="BC4" s="135"/>
-      <c r="BD4" s="135"/>
-      <c r="BE4" s="135"/>
-      <c r="BF4" s="135"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="135"/>
-      <c r="BI4" s="135"/>
-      <c r="BJ4" s="138">
+      <c r="AY4" s="137"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="137"/>
+      <c r="BB4" s="137"/>
+      <c r="BC4" s="137"/>
+      <c r="BD4" s="137"/>
+      <c r="BE4" s="137"/>
+      <c r="BF4" s="137"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="137"/>
+      <c r="BI4" s="137"/>
+      <c r="BJ4" s="140">
         <v>2017</v>
       </c>
-      <c r="BK4" s="135"/>
-      <c r="BL4" s="135"/>
-      <c r="BM4" s="135"/>
-      <c r="BN4" s="135"/>
-      <c r="BO4" s="135"/>
-      <c r="BP4" s="135"/>
-      <c r="BQ4" s="135"/>
-      <c r="BR4" s="135"/>
-      <c r="BS4" s="135"/>
-      <c r="BT4" s="135"/>
-      <c r="BU4" s="135"/>
-      <c r="BV4" s="138">
+      <c r="BK4" s="137"/>
+      <c r="BL4" s="137"/>
+      <c r="BM4" s="137"/>
+      <c r="BN4" s="137"/>
+      <c r="BO4" s="137"/>
+      <c r="BP4" s="137"/>
+      <c r="BQ4" s="137"/>
+      <c r="BR4" s="137"/>
+      <c r="BS4" s="137"/>
+      <c r="BT4" s="137"/>
+      <c r="BU4" s="137"/>
+      <c r="BV4" s="140">
         <v>2018</v>
       </c>
-      <c r="BW4" s="135"/>
-      <c r="BX4" s="135"/>
-      <c r="BY4" s="135"/>
-      <c r="BZ4" s="135"/>
-      <c r="CA4" s="135"/>
-      <c r="CB4" s="135"/>
-      <c r="CC4" s="135"/>
-      <c r="CD4" s="135"/>
-      <c r="CE4" s="135"/>
-      <c r="CF4" s="135"/>
-      <c r="CG4" s="135"/>
-      <c r="CH4" s="138">
+      <c r="BW4" s="137"/>
+      <c r="BX4" s="137"/>
+      <c r="BY4" s="137"/>
+      <c r="BZ4" s="137"/>
+      <c r="CA4" s="137"/>
+      <c r="CB4" s="137"/>
+      <c r="CC4" s="137"/>
+      <c r="CD4" s="137"/>
+      <c r="CE4" s="137"/>
+      <c r="CF4" s="137"/>
+      <c r="CG4" s="137"/>
+      <c r="CH4" s="140">
         <v>2019</v>
       </c>
-      <c r="CI4" s="135"/>
-      <c r="CJ4" s="135"/>
-      <c r="CK4" s="135"/>
-      <c r="CL4" s="135"/>
-      <c r="CM4" s="135"/>
-      <c r="CN4" s="135"/>
-      <c r="CO4" s="135"/>
-      <c r="CP4" s="135"/>
-      <c r="CQ4" s="135"/>
-      <c r="CR4" s="135"/>
-      <c r="CS4" s="135"/>
-      <c r="CT4" s="138">
+      <c r="CI4" s="137"/>
+      <c r="CJ4" s="137"/>
+      <c r="CK4" s="137"/>
+      <c r="CL4" s="137"/>
+      <c r="CM4" s="137"/>
+      <c r="CN4" s="137"/>
+      <c r="CO4" s="137"/>
+      <c r="CP4" s="137"/>
+      <c r="CQ4" s="137"/>
+      <c r="CR4" s="137"/>
+      <c r="CS4" s="137"/>
+      <c r="CT4" s="140">
         <v>2020</v>
       </c>
-      <c r="CU4" s="135"/>
-      <c r="CV4" s="135"/>
-      <c r="CW4" s="135"/>
-      <c r="CX4" s="135"/>
-      <c r="CY4" s="135"/>
-      <c r="CZ4" s="135"/>
-      <c r="DA4" s="135"/>
-      <c r="DB4" s="135"/>
-      <c r="DC4" s="135"/>
-      <c r="DD4" s="135"/>
-      <c r="DE4" s="135"/>
-      <c r="DF4" s="146" t="s">
+      <c r="CU4" s="137"/>
+      <c r="CV4" s="137"/>
+      <c r="CW4" s="137"/>
+      <c r="CX4" s="137"/>
+      <c r="CY4" s="137"/>
+      <c r="CZ4" s="137"/>
+      <c r="DA4" s="137"/>
+      <c r="DB4" s="137"/>
+      <c r="DC4" s="137"/>
+      <c r="DD4" s="137"/>
+      <c r="DE4" s="137"/>
+      <c r="DF4" s="148" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:148" ht="18" customHeight="1">
-      <c r="A5" s="150"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="50" t="s">
         <v>2</v>
       </c>
@@ -22012,15 +22030,15 @@
         <v>12</v>
       </c>
       <c r="DC5" s="50" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="DD5" s="50" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="DE5" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="DF5" s="147"/>
+      <c r="DF5" s="149"/>
     </row>
     <row r="6" spans="1:148" ht="18" customHeight="1">
       <c r="A6" s="52" t="s">
@@ -22342,9 +22360,11 @@
         <v>54.905905162297472</v>
       </c>
       <c r="DC6" s="54">
-        <v>60.940203705296852</v>
-      </c>
-      <c r="DD6" s="54"/>
+        <v>56.448893951502534</v>
+      </c>
+      <c r="DD6" s="54">
+        <v>58.790047849981377</v>
+      </c>
       <c r="DE6" s="54"/>
       <c r="DF6" s="64" t="s">
         <v>39</v>
@@ -22670,9 +22690,11 @@
         <v>202.66750811614739</v>
       </c>
       <c r="DC7" s="58">
-        <v>198.67706006649948</v>
-      </c>
-      <c r="DD7" s="58"/>
+        <v>179.99227270494185</v>
+      </c>
+      <c r="DD7" s="58">
+        <v>171.50103084730679</v>
+      </c>
       <c r="DE7" s="58"/>
       <c r="DF7" s="65" t="s">
         <v>40</v>
@@ -22998,9 +23020,11 @@
         <v>288.79389726258796</v>
       </c>
       <c r="DC8" s="54">
-        <v>289.84593179636244</v>
-      </c>
-      <c r="DD8" s="54"/>
+        <v>283.30880376148826</v>
+      </c>
+      <c r="DD8" s="54">
+        <v>291.72653394607391</v>
+      </c>
       <c r="DE8" s="54"/>
       <c r="DF8" s="64" t="s">
         <v>41</v>
@@ -23326,9 +23350,11 @@
         <v>158.32886444836677</v>
       </c>
       <c r="DC9" s="58">
-        <v>155.54951893939602</v>
-      </c>
-      <c r="DD9" s="58"/>
+        <v>161.41273948354348</v>
+      </c>
+      <c r="DD9" s="58">
+        <v>165.95894250063725</v>
+      </c>
       <c r="DE9" s="58"/>
       <c r="DF9" s="65" t="s">
         <v>42</v>
@@ -23654,9 +23680,11 @@
         <v>129.10867366208825</v>
       </c>
       <c r="DC10" s="54">
-        <v>133.51338022898895</v>
-      </c>
-      <c r="DD10" s="54"/>
+        <v>120.51543084843507</v>
+      </c>
+      <c r="DD10" s="54">
+        <v>118.31580264877235</v>
+      </c>
       <c r="DE10" s="54"/>
       <c r="DF10" s="64" t="s">
         <v>43</v>
@@ -23982,9 +24010,11 @@
         <v>82.228313900760369</v>
       </c>
       <c r="DC11" s="58">
-        <v>87.200240347909144</v>
-      </c>
-      <c r="DD11" s="58"/>
+        <v>93.04565293773426</v>
+      </c>
+      <c r="DD11" s="58">
+        <v>97.323867616954786</v>
+      </c>
       <c r="DE11" s="58"/>
       <c r="DF11" s="65" t="s">
         <v>44</v>
@@ -23992,7 +24022,7 @@
     </row>
     <row r="12" spans="1:148" ht="18" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="53">
         <v>108.27884435980604</v>
@@ -24310,9 +24340,11 @@
         <v>177.76620522332624</v>
       </c>
       <c r="DC12" s="54">
-        <v>179.82184229505677</v>
-      </c>
-      <c r="DD12" s="54"/>
+        <v>182.3056352185942</v>
+      </c>
+      <c r="DD12" s="54">
+        <v>184.10655345622501</v>
+      </c>
       <c r="DE12" s="54"/>
       <c r="DF12" s="64" t="s">
         <v>45</v>
@@ -24638,9 +24670,11 @@
         <v>177.33876138533313</v>
       </c>
       <c r="DC13" s="58">
-        <v>177.64220277799205</v>
-      </c>
-      <c r="DD13" s="58"/>
+        <v>196.443191590705</v>
+      </c>
+      <c r="DD13" s="58">
+        <v>199.26896542728653</v>
+      </c>
       <c r="DE13" s="58"/>
       <c r="DF13" s="65" t="s">
         <v>46</v>
@@ -24966,9 +25000,11 @@
         <v>92.863472936355933</v>
       </c>
       <c r="DC14" s="54">
-        <v>92.501219937597071</v>
-      </c>
-      <c r="DD14" s="54"/>
+        <v>92.519594354496121</v>
+      </c>
+      <c r="DD14" s="54">
+        <v>92.167936814518796</v>
+      </c>
       <c r="DE14" s="54"/>
       <c r="DF14" s="64" t="s">
         <v>47</v>
@@ -25294,9 +25330,11 @@
         <v>193.82974533102043</v>
       </c>
       <c r="DC15" s="115">
-        <v>194.10651881712155</v>
-      </c>
-      <c r="DD15" s="115"/>
+        <v>183.47160216961299</v>
+      </c>
+      <c r="DD15" s="115">
+        <v>182.66497428989769</v>
+      </c>
       <c r="DE15" s="115"/>
       <c r="DF15" s="79" t="s">
         <v>31</v>
@@ -25312,7 +25350,7 @@
     </row>
     <row r="17" spans="1:110" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="DF17" s="45" t="s">
         <v>79</v>
@@ -25744,7 +25782,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC15" sqref="DC15"/>
+      <selection pane="topRight" activeCell="DC5" sqref="DC5:DD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -25755,8 +25793,8 @@
     <col min="74" max="75" width="8.6328125" customWidth="1"/>
     <col min="76" max="76" width="7.6328125" customWidth="1"/>
     <col min="77" max="77" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="80" max="107" width="9.08984375" customWidth="1"/>
-    <col min="108" max="109" width="9.08984375" hidden="1" customWidth="1"/>
+    <col min="80" max="108" width="9.08984375" customWidth="1"/>
+    <col min="109" max="109" width="9.08984375" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25922,141 +25960,141 @@
       <c r="BX3" s="3"/>
     </row>
     <row r="4" spans="1:110" ht="18" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="138">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="140">
         <v>2013</v>
       </c>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="138">
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="140">
         <v>2014</v>
       </c>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="135"/>
-      <c r="AI4" s="135"/>
-      <c r="AJ4" s="135"/>
-      <c r="AK4" s="135"/>
-      <c r="AL4" s="138">
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="137"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137"/>
+      <c r="AK4" s="137"/>
+      <c r="AL4" s="140">
         <v>2015</v>
       </c>
-      <c r="AM4" s="135"/>
-      <c r="AN4" s="135"/>
-      <c r="AO4" s="135"/>
-      <c r="AP4" s="135"/>
-      <c r="AQ4" s="135"/>
-      <c r="AR4" s="135"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="135"/>
-      <c r="AU4" s="135"/>
-      <c r="AV4" s="135"/>
-      <c r="AW4" s="135"/>
-      <c r="AX4" s="138">
+      <c r="AM4" s="137"/>
+      <c r="AN4" s="137"/>
+      <c r="AO4" s="137"/>
+      <c r="AP4" s="137"/>
+      <c r="AQ4" s="137"/>
+      <c r="AR4" s="137"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="137"/>
+      <c r="AU4" s="137"/>
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="137"/>
+      <c r="AX4" s="140">
         <v>2016</v>
       </c>
-      <c r="AY4" s="135"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="135"/>
-      <c r="BB4" s="135"/>
-      <c r="BC4" s="135"/>
-      <c r="BD4" s="135"/>
-      <c r="BE4" s="135"/>
-      <c r="BF4" s="135"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="135"/>
-      <c r="BI4" s="135"/>
-      <c r="BJ4" s="138">
+      <c r="AY4" s="137"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="137"/>
+      <c r="BB4" s="137"/>
+      <c r="BC4" s="137"/>
+      <c r="BD4" s="137"/>
+      <c r="BE4" s="137"/>
+      <c r="BF4" s="137"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="137"/>
+      <c r="BI4" s="137"/>
+      <c r="BJ4" s="140">
         <v>2017</v>
       </c>
-      <c r="BK4" s="135"/>
-      <c r="BL4" s="135"/>
-      <c r="BM4" s="135"/>
-      <c r="BN4" s="135"/>
-      <c r="BO4" s="135"/>
-      <c r="BP4" s="135"/>
-      <c r="BQ4" s="135"/>
-      <c r="BR4" s="135"/>
-      <c r="BS4" s="135"/>
-      <c r="BT4" s="135"/>
-      <c r="BU4" s="135"/>
-      <c r="BV4" s="151">
+      <c r="BK4" s="137"/>
+      <c r="BL4" s="137"/>
+      <c r="BM4" s="137"/>
+      <c r="BN4" s="137"/>
+      <c r="BO4" s="137"/>
+      <c r="BP4" s="137"/>
+      <c r="BQ4" s="137"/>
+      <c r="BR4" s="137"/>
+      <c r="BS4" s="137"/>
+      <c r="BT4" s="137"/>
+      <c r="BU4" s="137"/>
+      <c r="BV4" s="153">
         <v>2018</v>
       </c>
-      <c r="BW4" s="152"/>
-      <c r="BX4" s="152"/>
-      <c r="BY4" s="152"/>
-      <c r="BZ4" s="152"/>
-      <c r="CA4" s="152"/>
-      <c r="CB4" s="152"/>
-      <c r="CC4" s="152"/>
-      <c r="CD4" s="152"/>
-      <c r="CE4" s="152"/>
-      <c r="CF4" s="152"/>
-      <c r="CG4" s="152"/>
-      <c r="CH4" s="151">
+      <c r="BW4" s="154"/>
+      <c r="BX4" s="154"/>
+      <c r="BY4" s="154"/>
+      <c r="BZ4" s="154"/>
+      <c r="CA4" s="154"/>
+      <c r="CB4" s="154"/>
+      <c r="CC4" s="154"/>
+      <c r="CD4" s="154"/>
+      <c r="CE4" s="154"/>
+      <c r="CF4" s="154"/>
+      <c r="CG4" s="154"/>
+      <c r="CH4" s="153">
         <v>2019</v>
       </c>
-      <c r="CI4" s="152"/>
-      <c r="CJ4" s="152"/>
-      <c r="CK4" s="152"/>
-      <c r="CL4" s="152"/>
-      <c r="CM4" s="152"/>
-      <c r="CN4" s="152"/>
-      <c r="CO4" s="152"/>
-      <c r="CP4" s="152"/>
-      <c r="CQ4" s="152"/>
-      <c r="CR4" s="152"/>
-      <c r="CS4" s="152"/>
-      <c r="CT4" s="151">
+      <c r="CI4" s="154"/>
+      <c r="CJ4" s="154"/>
+      <c r="CK4" s="154"/>
+      <c r="CL4" s="154"/>
+      <c r="CM4" s="154"/>
+      <c r="CN4" s="154"/>
+      <c r="CO4" s="154"/>
+      <c r="CP4" s="154"/>
+      <c r="CQ4" s="154"/>
+      <c r="CR4" s="154"/>
+      <c r="CS4" s="154"/>
+      <c r="CT4" s="153">
         <v>2020</v>
       </c>
-      <c r="CU4" s="152"/>
-      <c r="CV4" s="152"/>
-      <c r="CW4" s="152"/>
-      <c r="CX4" s="152"/>
-      <c r="CY4" s="152"/>
-      <c r="CZ4" s="152"/>
-      <c r="DA4" s="152"/>
-      <c r="DB4" s="152"/>
-      <c r="DC4" s="152"/>
-      <c r="DD4" s="152"/>
-      <c r="DE4" s="152"/>
-      <c r="DF4" s="136" t="s">
+      <c r="CU4" s="154"/>
+      <c r="CV4" s="154"/>
+      <c r="CW4" s="154"/>
+      <c r="CX4" s="154"/>
+      <c r="CY4" s="154"/>
+      <c r="CZ4" s="154"/>
+      <c r="DA4" s="154"/>
+      <c r="DB4" s="154"/>
+      <c r="DC4" s="154"/>
+      <c r="DD4" s="154"/>
+      <c r="DE4" s="154"/>
+      <c r="DF4" s="138" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:110" ht="18" customHeight="1">
-      <c r="A5" s="150"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="50" t="s">
         <v>2</v>
       </c>
@@ -26373,15 +26411,15 @@
         <v>12</v>
       </c>
       <c r="DC5" s="50" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="DD5" s="50" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="DE5" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="DF5" s="141"/>
+      <c r="DF5" s="143"/>
     </row>
     <row r="6" spans="1:110" ht="18" customHeight="1">
       <c r="A6" s="52" t="s">
@@ -26797,11 +26835,11 @@
       </c>
       <c r="DC6" s="54">
         <f>IFERROR('Tabel 5'!DC6/'Tabel 5'!CQ6*100-100,"")</f>
-        <v>-41.149443852561852</v>
+        <v>-45.486746007300717</v>
       </c>
       <c r="DD6" s="54">
         <f>IFERROR('Tabel 5'!DD6/'Tabel 5'!CR6*100-100,"")</f>
-        <v>-100</v>
+        <v>-45.219699364358725</v>
       </c>
       <c r="DE6" s="54">
         <f>IFERROR('Tabel 5'!DE6/'Tabel 5'!CS6*100-100,"")</f>
@@ -27225,11 +27263,11 @@
       </c>
       <c r="DC7" s="58">
         <f>IFERROR('Tabel 5'!DC7/'Tabel 5'!CQ7*100-100,"")</f>
-        <v>-18.292557134408298</v>
+        <v>-25.976817185816358</v>
       </c>
       <c r="DD7" s="58">
         <f>IFERROR('Tabel 5'!DD7/'Tabel 5'!CR7*100-100,"")</f>
-        <v>-100</v>
+        <v>-29.204757822316637</v>
       </c>
       <c r="DE7" s="58">
         <f>IFERROR('Tabel 5'!DE7/'Tabel 5'!CS7*100-100,"")</f>
@@ -27653,11 +27691,11 @@
       </c>
       <c r="DC8" s="54">
         <f>IFERROR('Tabel 5'!DC8/'Tabel 5'!CQ8*100-100,"")</f>
-        <v>7.4793050878971172</v>
+        <v>5.0552380185255146</v>
       </c>
       <c r="DD8" s="54">
         <f>IFERROR('Tabel 5'!DD8/'Tabel 5'!CR8*100-100,"")</f>
-        <v>-100</v>
+        <v>7.5225171672217925</v>
       </c>
       <c r="DE8" s="54">
         <f>IFERROR('Tabel 5'!DE8/'Tabel 5'!CS8*100-100,"")</f>
@@ -28081,11 +28119,11 @@
       </c>
       <c r="DC9" s="58">
         <f>IFERROR('Tabel 5'!DC9/'Tabel 5'!CQ9*100-100,"")</f>
-        <v>-18.331580888747212</v>
+        <v>-15.253204587707643</v>
       </c>
       <c r="DD9" s="58">
         <f>IFERROR('Tabel 5'!DD9/'Tabel 5'!CR9*100-100,"")</f>
-        <v>-100</v>
+        <v>-14.394252933448641</v>
       </c>
       <c r="DE9" s="58">
         <f>IFERROR('Tabel 5'!DE9/'Tabel 5'!CS9*100-100,"")</f>
@@ -28509,11 +28547,11 @@
       </c>
       <c r="DC10" s="54">
         <f>IFERROR('Tabel 5'!DC10/'Tabel 5'!CQ10*100-100,"")</f>
-        <v>-17.595944224207258</v>
+        <v>-25.61823939708863</v>
       </c>
       <c r="DD10" s="54">
         <f>IFERROR('Tabel 5'!DD10/'Tabel 5'!CR10*100-100,"")</f>
-        <v>-100</v>
+        <v>-29.833582983895624</v>
       </c>
       <c r="DE10" s="54">
         <f>IFERROR('Tabel 5'!DE10/'Tabel 5'!CS10*100-100,"")</f>
@@ -28937,11 +28975,11 @@
       </c>
       <c r="DC11" s="58">
         <f>IFERROR('Tabel 5'!DC11/'Tabel 5'!CQ11*100-100,"")</f>
-        <v>-19.093685638108951</v>
+        <v>-13.670182369305323</v>
       </c>
       <c r="DD11" s="58">
         <f>IFERROR('Tabel 5'!DD11/'Tabel 5'!CR11*100-100,"")</f>
-        <v>-100</v>
+        <v>-10.492537576888495</v>
       </c>
       <c r="DE11" s="58">
         <f>IFERROR('Tabel 5'!DE11/'Tabel 5'!CS11*100-100,"")</f>
@@ -28953,7 +28991,7 @@
     </row>
     <row r="12" spans="1:110" ht="18" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="53">
         <v>21.299734505224222</v>
@@ -29365,11 +29403,11 @@
       </c>
       <c r="DC12" s="54">
         <f>IFERROR('Tabel 5'!DC12/'Tabel 5'!CQ12*100-100,"")</f>
-        <v>2.0989576639161953</v>
+        <v>3.5092016326665458</v>
       </c>
       <c r="DD12" s="54">
         <f>IFERROR('Tabel 5'!DD12/'Tabel 5'!CR12*100-100,"")</f>
-        <v>-100</v>
+        <v>1.6451878407630574</v>
       </c>
       <c r="DE12" s="54">
         <f>IFERROR('Tabel 5'!DE12/'Tabel 5'!CS12*100-100,"")</f>
@@ -29793,11 +29831,11 @@
       </c>
       <c r="DC13" s="58">
         <f>IFERROR('Tabel 5'!DC13/'Tabel 5'!CQ13*100-100,"")</f>
-        <v>-3.9661792464203529</v>
+        <v>6.1976825014920394</v>
       </c>
       <c r="DD13" s="58">
         <f>IFERROR('Tabel 5'!DD13/'Tabel 5'!CR13*100-100,"")</f>
-        <v>-100</v>
+        <v>7.9327099426880494</v>
       </c>
       <c r="DE13" s="58">
         <f>IFERROR('Tabel 5'!DE13/'Tabel 5'!CS13*100-100,"")</f>
@@ -30221,11 +30259,11 @@
       </c>
       <c r="DC14" s="54">
         <f>IFERROR('Tabel 5'!DC14/'Tabel 5'!CQ14*100-100,"")</f>
-        <v>-31.137361069616659</v>
+        <v>-31.123682213950445</v>
       </c>
       <c r="DD14" s="54">
         <f>IFERROR('Tabel 5'!DD14/'Tabel 5'!CR14*100-100,"")</f>
-        <v>-100</v>
+        <v>-31.723799399825182</v>
       </c>
       <c r="DE14" s="54">
         <f>IFERROR('Tabel 5'!DE14/'Tabel 5'!CS14*100-100,"")</f>
@@ -30649,11 +30687,11 @@
       </c>
       <c r="DC15" s="62">
         <f>IFERROR('Tabel 5'!DC15/'Tabel 5'!CQ15*100-100,"")</f>
-        <v>-10.014550019102288</v>
+        <v>-14.944769600944511</v>
       </c>
       <c r="DD15" s="62">
         <f>IFERROR('Tabel 5'!DD15/'Tabel 5'!CR15*100-100,"")</f>
-        <v>-100</v>
+        <v>-15.659859886113878</v>
       </c>
       <c r="DE15" s="62">
         <f>IFERROR('Tabel 5'!DE15/'Tabel 5'!CS15*100-100,"")</f>
@@ -30673,7 +30711,7 @@
     </row>
     <row r="17" spans="1:112" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="DF17" s="45" t="s">
         <v>79</v>
@@ -30776,7 +30814,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC15" sqref="DC15"/>
+      <selection pane="topRight" activeCell="DC5" sqref="DC5:DD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -30788,8 +30826,8 @@
     <col min="77" max="77" width="5.6328125" bestFit="1" customWidth="1"/>
     <col min="80" max="91" width="9.08984375" customWidth="1"/>
     <col min="92" max="92" width="9.81640625" customWidth="1"/>
-    <col min="93" max="107" width="9.08984375" customWidth="1"/>
-    <col min="108" max="109" width="9.08984375" hidden="1" customWidth="1"/>
+    <col min="93" max="108" width="9.08984375" customWidth="1"/>
+    <col min="109" max="109" width="9.08984375" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30955,141 +30993,141 @@
       <c r="BX3" s="3"/>
     </row>
     <row r="4" spans="1:110" ht="18" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="138">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="140">
         <v>2013</v>
       </c>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="138">
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="140">
         <v>2014</v>
       </c>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="135"/>
-      <c r="AI4" s="135"/>
-      <c r="AJ4" s="135"/>
-      <c r="AK4" s="135"/>
-      <c r="AL4" s="138">
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="137"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137"/>
+      <c r="AK4" s="137"/>
+      <c r="AL4" s="140">
         <v>2015</v>
       </c>
-      <c r="AM4" s="135"/>
-      <c r="AN4" s="135"/>
-      <c r="AO4" s="135"/>
-      <c r="AP4" s="135"/>
-      <c r="AQ4" s="135"/>
-      <c r="AR4" s="135"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="135"/>
-      <c r="AU4" s="135"/>
-      <c r="AV4" s="135"/>
-      <c r="AW4" s="135"/>
-      <c r="AX4" s="138">
+      <c r="AM4" s="137"/>
+      <c r="AN4" s="137"/>
+      <c r="AO4" s="137"/>
+      <c r="AP4" s="137"/>
+      <c r="AQ4" s="137"/>
+      <c r="AR4" s="137"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="137"/>
+      <c r="AU4" s="137"/>
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="137"/>
+      <c r="AX4" s="140">
         <v>2016</v>
       </c>
-      <c r="AY4" s="135"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="135"/>
-      <c r="BB4" s="135"/>
-      <c r="BC4" s="135"/>
-      <c r="BD4" s="135"/>
-      <c r="BE4" s="135"/>
-      <c r="BF4" s="135"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="135"/>
-      <c r="BI4" s="135"/>
-      <c r="BJ4" s="138">
+      <c r="AY4" s="137"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="137"/>
+      <c r="BB4" s="137"/>
+      <c r="BC4" s="137"/>
+      <c r="BD4" s="137"/>
+      <c r="BE4" s="137"/>
+      <c r="BF4" s="137"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="137"/>
+      <c r="BI4" s="137"/>
+      <c r="BJ4" s="140">
         <v>2017</v>
       </c>
-      <c r="BK4" s="135"/>
-      <c r="BL4" s="135"/>
-      <c r="BM4" s="135"/>
-      <c r="BN4" s="135"/>
-      <c r="BO4" s="135"/>
-      <c r="BP4" s="135"/>
-      <c r="BQ4" s="135"/>
-      <c r="BR4" s="135"/>
-      <c r="BS4" s="135"/>
-      <c r="BT4" s="135"/>
-      <c r="BU4" s="135"/>
-      <c r="BV4" s="151">
+      <c r="BK4" s="137"/>
+      <c r="BL4" s="137"/>
+      <c r="BM4" s="137"/>
+      <c r="BN4" s="137"/>
+      <c r="BO4" s="137"/>
+      <c r="BP4" s="137"/>
+      <c r="BQ4" s="137"/>
+      <c r="BR4" s="137"/>
+      <c r="BS4" s="137"/>
+      <c r="BT4" s="137"/>
+      <c r="BU4" s="137"/>
+      <c r="BV4" s="153">
         <v>2018</v>
       </c>
-      <c r="BW4" s="152"/>
-      <c r="BX4" s="152"/>
-      <c r="BY4" s="152"/>
-      <c r="BZ4" s="152"/>
-      <c r="CA4" s="152"/>
-      <c r="CB4" s="152"/>
-      <c r="CC4" s="152"/>
-      <c r="CD4" s="152"/>
-      <c r="CE4" s="152"/>
-      <c r="CF4" s="152"/>
-      <c r="CG4" s="152"/>
-      <c r="CH4" s="151">
+      <c r="BW4" s="154"/>
+      <c r="BX4" s="154"/>
+      <c r="BY4" s="154"/>
+      <c r="BZ4" s="154"/>
+      <c r="CA4" s="154"/>
+      <c r="CB4" s="154"/>
+      <c r="CC4" s="154"/>
+      <c r="CD4" s="154"/>
+      <c r="CE4" s="154"/>
+      <c r="CF4" s="154"/>
+      <c r="CG4" s="154"/>
+      <c r="CH4" s="153">
         <v>2019</v>
       </c>
-      <c r="CI4" s="152"/>
-      <c r="CJ4" s="152"/>
-      <c r="CK4" s="152"/>
-      <c r="CL4" s="152"/>
-      <c r="CM4" s="152"/>
-      <c r="CN4" s="152"/>
-      <c r="CO4" s="152"/>
-      <c r="CP4" s="152"/>
-      <c r="CQ4" s="152"/>
-      <c r="CR4" s="152"/>
-      <c r="CS4" s="152"/>
-      <c r="CT4" s="151">
+      <c r="CI4" s="154"/>
+      <c r="CJ4" s="154"/>
+      <c r="CK4" s="154"/>
+      <c r="CL4" s="154"/>
+      <c r="CM4" s="154"/>
+      <c r="CN4" s="154"/>
+      <c r="CO4" s="154"/>
+      <c r="CP4" s="154"/>
+      <c r="CQ4" s="154"/>
+      <c r="CR4" s="154"/>
+      <c r="CS4" s="154"/>
+      <c r="CT4" s="153">
         <v>2020</v>
       </c>
-      <c r="CU4" s="152"/>
-      <c r="CV4" s="152"/>
-      <c r="CW4" s="152"/>
-      <c r="CX4" s="152"/>
-      <c r="CY4" s="152"/>
-      <c r="CZ4" s="152"/>
-      <c r="DA4" s="152"/>
-      <c r="DB4" s="152"/>
-      <c r="DC4" s="152"/>
-      <c r="DD4" s="152"/>
-      <c r="DE4" s="152"/>
-      <c r="DF4" s="136" t="s">
+      <c r="CU4" s="154"/>
+      <c r="CV4" s="154"/>
+      <c r="CW4" s="154"/>
+      <c r="CX4" s="154"/>
+      <c r="CY4" s="154"/>
+      <c r="CZ4" s="154"/>
+      <c r="DA4" s="154"/>
+      <c r="DB4" s="154"/>
+      <c r="DC4" s="154"/>
+      <c r="DD4" s="154"/>
+      <c r="DE4" s="154"/>
+      <c r="DF4" s="138" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:110" ht="18" customHeight="1">
-      <c r="A5" s="150"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="50" t="s">
         <v>2</v>
       </c>
@@ -31406,15 +31444,15 @@
         <v>12</v>
       </c>
       <c r="DC5" s="50" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="DD5" s="50" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="DE5" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="DF5" s="141"/>
+      <c r="DF5" s="143"/>
     </row>
     <row r="6" spans="1:110" ht="18" customHeight="1">
       <c r="A6" s="52" t="s">
@@ -31841,15 +31879,15 @@
       </c>
       <c r="DC6" s="54">
         <f>IFERROR('Tabel 5'!DC6/'Tabel 5'!DB6*100-100,"")</f>
-        <v>10.990254190623887</v>
+        <v>2.8102419669507412</v>
       </c>
       <c r="DD6" s="54">
         <f>IFERROR('Tabel 5'!DD6/'Tabel 5'!DC6*100-100,"")</f>
+        <v>4.1473866618010504</v>
+      </c>
+      <c r="DE6" s="54">
+        <f>IFERROR('Tabel 5'!DE6/'Tabel 5'!DD6*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE6" s="54" t="str">
-        <f>IFERROR('Tabel 5'!DE6/'Tabel 5'!DD6*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF6" s="66" t="s">
         <v>39</v>
@@ -32280,15 +32318,15 @@
       </c>
       <c r="DC7" s="58">
         <f>IFERROR('Tabel 5'!DC7/'Tabel 5'!DB7*100-100,"")</f>
-        <v>-1.9689629022137183</v>
+        <v>-11.188392072305192</v>
       </c>
       <c r="DD7" s="58">
         <f>IFERROR('Tabel 5'!DD7/'Tabel 5'!DC7*100-100,"")</f>
+        <v>-4.7175591096372216</v>
+      </c>
+      <c r="DE7" s="58">
+        <f>IFERROR('Tabel 5'!DE7/'Tabel 5'!DD7*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE7" s="58" t="str">
-        <f>IFERROR('Tabel 5'!DE7/'Tabel 5'!DD7*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF7" s="67" t="s">
         <v>40</v>
@@ -32719,15 +32757,15 @@
       </c>
       <c r="DC8" s="54">
         <f>IFERROR('Tabel 5'!DC8/'Tabel 5'!DB8*100-100,"")</f>
-        <v>0.36428558350661433</v>
+        <v>-1.8993107378970393</v>
       </c>
       <c r="DD8" s="54">
         <f>IFERROR('Tabel 5'!DD8/'Tabel 5'!DC8*100-100,"")</f>
+        <v>2.9712208278823482</v>
+      </c>
+      <c r="DE8" s="54">
+        <f>IFERROR('Tabel 5'!DE8/'Tabel 5'!DD8*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE8" s="54" t="str">
-        <f>IFERROR('Tabel 5'!DE8/'Tabel 5'!DD8*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF8" s="66" t="s">
         <v>41</v>
@@ -33158,15 +33196,15 @@
       </c>
       <c r="DC9" s="58">
         <f>IFERROR('Tabel 5'!DC9/'Tabel 5'!DB9*100-100,"")</f>
-        <v>-1.7554256570046505</v>
+        <v>1.9477655233120146</v>
       </c>
       <c r="DD9" s="58">
         <f>IFERROR('Tabel 5'!DD9/'Tabel 5'!DC9*100-100,"")</f>
+        <v>2.8165081837033625</v>
+      </c>
+      <c r="DE9" s="58">
+        <f>IFERROR('Tabel 5'!DE9/'Tabel 5'!DD9*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE9" s="58" t="str">
-        <f>IFERROR('Tabel 5'!DE9/'Tabel 5'!DD9*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF9" s="67" t="s">
         <v>42</v>
@@ -33597,15 +33635,15 @@
       </c>
       <c r="DC10" s="54">
         <f>IFERROR('Tabel 5'!DC10/'Tabel 5'!DB10*100-100,"")</f>
-        <v>3.4116271525095101</v>
+        <v>-6.6558214641287208</v>
       </c>
       <c r="DD10" s="54">
         <f>IFERROR('Tabel 5'!DD10/'Tabel 5'!DC10*100-100,"")</f>
+        <v>-1.8251838658147221</v>
+      </c>
+      <c r="DE10" s="54">
+        <f>IFERROR('Tabel 5'!DE10/'Tabel 5'!DD10*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE10" s="54" t="str">
-        <f>IFERROR('Tabel 5'!DE10/'Tabel 5'!DD10*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF10" s="66" t="s">
         <v>43</v>
@@ -34036,15 +34074,15 @@
       </c>
       <c r="DC11" s="58">
         <f>IFERROR('Tabel 5'!DC11/'Tabel 5'!DB11*100-100,"")</f>
-        <v>6.0464895986427365</v>
+        <v>13.155248507258847</v>
       </c>
       <c r="DD11" s="58">
         <f>IFERROR('Tabel 5'!DD11/'Tabel 5'!DC11*100-100,"")</f>
+        <v>4.5979737302542105</v>
+      </c>
+      <c r="DE11" s="58">
+        <f>IFERROR('Tabel 5'!DE11/'Tabel 5'!DD11*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE11" s="58" t="str">
-        <f>IFERROR('Tabel 5'!DE11/'Tabel 5'!DD11*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF11" s="67" t="s">
         <v>44</v>
@@ -34052,7 +34090,7 @@
     </row>
     <row r="12" spans="1:110" ht="18" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="54">
         <v>-5.6626148856447784</v>
@@ -34475,15 +34513,15 @@
       </c>
       <c r="DC12" s="54">
         <f>IFERROR('Tabel 5'!DC12/'Tabel 5'!DB12*100-100,"")</f>
-        <v>1.1563711275425277</v>
+        <v>2.5535956002239715</v>
       </c>
       <c r="DD12" s="54">
         <f>IFERROR('Tabel 5'!DD12/'Tabel 5'!DC12*100-100,"")</f>
+        <v>0.98785659339131371</v>
+      </c>
+      <c r="DE12" s="54">
+        <f>IFERROR('Tabel 5'!DE12/'Tabel 5'!DD12*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE12" s="54" t="str">
-        <f>IFERROR('Tabel 5'!DE12/'Tabel 5'!DD12*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF12" s="66" t="s">
         <v>45</v>
@@ -34914,15 +34952,15 @@
       </c>
       <c r="DC13" s="58">
         <f>IFERROR('Tabel 5'!DC13/'Tabel 5'!DB13*100-100,"")</f>
-        <v>0.17110832977995472</v>
+        <v>10.772845178421278</v>
       </c>
       <c r="DD13" s="58">
         <f>IFERROR('Tabel 5'!DD13/'Tabel 5'!DC13*100-100,"")</f>
+        <v>1.4384687062451746</v>
+      </c>
+      <c r="DE13" s="58">
+        <f>IFERROR('Tabel 5'!DE13/'Tabel 5'!DD13*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE13" s="58" t="str">
-        <f>IFERROR('Tabel 5'!DE13/'Tabel 5'!DD13*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF13" s="67" t="s">
         <v>46</v>
@@ -35353,15 +35391,15 @@
       </c>
       <c r="DC14" s="54">
         <f>IFERROR('Tabel 5'!DC14/'Tabel 5'!DB14*100-100,"")</f>
-        <v>-0.39009202144220012</v>
+        <v>-0.37030553670493305</v>
       </c>
       <c r="DD14" s="54">
         <f>IFERROR('Tabel 5'!DD14/'Tabel 5'!DC14*100-100,"")</f>
+        <v>-0.38008979874028626</v>
+      </c>
+      <c r="DE14" s="54">
+        <f>IFERROR('Tabel 5'!DE14/'Tabel 5'!DD14*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE14" s="54" t="str">
-        <f>IFERROR('Tabel 5'!DE14/'Tabel 5'!DD14*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF14" s="66" t="s">
         <v>47</v>
@@ -35792,15 +35830,15 @@
       </c>
       <c r="DC15" s="62">
         <f>IFERROR('Tabel 5'!DC15/'Tabel 5'!DB15*100-100,"")</f>
-        <v>0.14279205992271216</v>
+        <v>-5.3439389004602589</v>
       </c>
       <c r="DD15" s="62">
         <f>IFERROR('Tabel 5'!DD15/'Tabel 5'!DC15*100-100,"")</f>
+        <v>-0.43964726430503731</v>
+      </c>
+      <c r="DE15" s="62">
+        <f>IFERROR('Tabel 5'!DE15/'Tabel 5'!DD15*100-100,"")</f>
         <v>-100</v>
-      </c>
-      <c r="DE15" s="62" t="str">
-        <f>IFERROR('Tabel 5'!DE15/'Tabel 5'!DD15*100-100,"")</f>
-        <v/>
       </c>
       <c r="DF15" s="80" t="s">
         <v>31</v>
@@ -35816,7 +35854,7 @@
     </row>
     <row r="17" spans="1:110" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="DF17" s="45" t="s">
         <v>79</v>
@@ -35940,7 +35978,7 @@
   <sheetData>
     <row r="2" spans="1:38" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -35968,7 +36006,7 @@
       <c r="Y2" s="11"/>
       <c r="Z2" s="49"/>
       <c r="AL2" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" thickBot="1">
@@ -36000,69 +36038,69 @@
       <c r="Z3" s="49"/>
     </row>
     <row r="4" spans="1:38" ht="18" customHeight="1">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="146">
         <v>2012</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="142">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="144">
         <v>2013</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="142">
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="144">
         <v>2014</v>
       </c>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="142">
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="144">
         <v>2015</v>
       </c>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="142">
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="144">
         <v>2016</v>
       </c>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="142">
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="144">
         <v>2017</v>
       </c>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="142">
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="144">
         <v>2018</v>
       </c>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="142">
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="144">
         <v>2019</v>
       </c>
-      <c r="AE4" s="142"/>
-      <c r="AF4" s="142"/>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="142">
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="145"/>
+      <c r="AH4" s="144">
         <v>2020</v>
       </c>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="136" t="s">
+      <c r="AI4" s="144"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="145"/>
+      <c r="AL4" s="138" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="18" customHeight="1">
-      <c r="A5" s="150"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="81" t="s">
         <v>32</v>
       </c>
@@ -36085,7 +36123,7 @@
         <v>34</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="76" t="s">
         <v>32</v>
@@ -36169,9 +36207,9 @@
         <v>34</v>
       </c>
       <c r="AK5" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL5" s="141"/>
+        <v>87</v>
+      </c>
+      <c r="AL5" s="143"/>
     </row>
     <row r="6" spans="1:38" ht="18" customHeight="1">
       <c r="A6" s="69" t="s">
@@ -36901,7 +36939,7 @@
     </row>
     <row r="12" spans="1:38" ht="18" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="83">
         <v>-1.4070393077224015</v>
@@ -37418,7 +37456,7 @@
     </row>
     <row r="17" spans="1:38" s="20" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="124" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="125"/>
@@ -37462,12 +37500,12 @@
     </row>
     <row r="18" spans="1:38" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W18" s="43"/>
       <c r="Z18" s="128"/>
       <c r="AL18" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="20" customFormat="1" ht="15" customHeight="1">
@@ -37481,11 +37519,11 @@
     </row>
     <row r="20" spans="1:38" s="130" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z20" s="131"/>
       <c r="AL20" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -37513,7 +37551,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DB12" sqref="DB12:DB13"/>
+      <selection pane="topRight" activeCell="CY18" sqref="CY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -37523,8 +37561,8 @@
     <col min="62" max="62" width="8.90625" collapsed="1"/>
     <col min="80" max="82" width="9.08984375" customWidth="1"/>
     <col min="83" max="83" width="9.36328125" customWidth="1"/>
-    <col min="84" max="106" width="9.08984375" customWidth="1"/>
-    <col min="107" max="109" width="9.08984375" hidden="1" customWidth="1"/>
+    <col min="84" max="107" width="9.08984375" customWidth="1"/>
+    <col min="108" max="109" width="9.08984375" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="36.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37756,141 +37794,141 @@
       <c r="DE3" s="8"/>
     </row>
     <row r="4" spans="1:110" ht="18" customHeight="1">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="155">
+      <c r="B4" s="157">
         <v>2012</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="155">
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="157">
         <v>2013</v>
       </c>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="155">
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="157">
         <v>2014</v>
       </c>
-      <c r="AA4" s="155"/>
-      <c r="AB4" s="155"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="155"/>
-      <c r="AE4" s="155"/>
-      <c r="AF4" s="155"/>
-      <c r="AG4" s="155"/>
-      <c r="AH4" s="155"/>
-      <c r="AI4" s="155"/>
-      <c r="AJ4" s="155"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="155">
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="157"/>
+      <c r="AF4" s="157"/>
+      <c r="AG4" s="157"/>
+      <c r="AH4" s="157"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="158"/>
+      <c r="AL4" s="157">
         <v>2015</v>
       </c>
-      <c r="AM4" s="155"/>
-      <c r="AN4" s="155"/>
-      <c r="AO4" s="155"/>
-      <c r="AP4" s="155"/>
-      <c r="AQ4" s="155"/>
-      <c r="AR4" s="155"/>
-      <c r="AS4" s="155"/>
-      <c r="AT4" s="155"/>
-      <c r="AU4" s="155"/>
-      <c r="AV4" s="155"/>
-      <c r="AW4" s="156"/>
-      <c r="AX4" s="155">
+      <c r="AM4" s="157"/>
+      <c r="AN4" s="157"/>
+      <c r="AO4" s="157"/>
+      <c r="AP4" s="157"/>
+      <c r="AQ4" s="157"/>
+      <c r="AR4" s="157"/>
+      <c r="AS4" s="157"/>
+      <c r="AT4" s="157"/>
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="157"/>
+      <c r="AW4" s="158"/>
+      <c r="AX4" s="157">
         <v>2016</v>
       </c>
-      <c r="AY4" s="155"/>
-      <c r="AZ4" s="155"/>
-      <c r="BA4" s="155"/>
-      <c r="BB4" s="155"/>
-      <c r="BC4" s="155"/>
-      <c r="BD4" s="155"/>
-      <c r="BE4" s="155"/>
-      <c r="BF4" s="155"/>
-      <c r="BG4" s="155"/>
-      <c r="BH4" s="155"/>
-      <c r="BI4" s="156"/>
-      <c r="BJ4" s="155">
+      <c r="AY4" s="157"/>
+      <c r="AZ4" s="157"/>
+      <c r="BA4" s="157"/>
+      <c r="BB4" s="157"/>
+      <c r="BC4" s="157"/>
+      <c r="BD4" s="157"/>
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="157"/>
+      <c r="BG4" s="157"/>
+      <c r="BH4" s="157"/>
+      <c r="BI4" s="158"/>
+      <c r="BJ4" s="157">
         <v>2017</v>
       </c>
-      <c r="BK4" s="155"/>
-      <c r="BL4" s="155"/>
-      <c r="BM4" s="155"/>
-      <c r="BN4" s="155"/>
-      <c r="BO4" s="155"/>
-      <c r="BP4" s="155"/>
-      <c r="BQ4" s="155"/>
-      <c r="BR4" s="155"/>
-      <c r="BS4" s="155"/>
-      <c r="BT4" s="155"/>
-      <c r="BU4" s="156"/>
-      <c r="BV4" s="159">
+      <c r="BK4" s="157"/>
+      <c r="BL4" s="157"/>
+      <c r="BM4" s="157"/>
+      <c r="BN4" s="157"/>
+      <c r="BO4" s="157"/>
+      <c r="BP4" s="157"/>
+      <c r="BQ4" s="157"/>
+      <c r="BR4" s="157"/>
+      <c r="BS4" s="157"/>
+      <c r="BT4" s="157"/>
+      <c r="BU4" s="158"/>
+      <c r="BV4" s="161">
         <v>2018</v>
       </c>
-      <c r="BW4" s="160"/>
-      <c r="BX4" s="160"/>
-      <c r="BY4" s="160"/>
-      <c r="BZ4" s="160"/>
-      <c r="CA4" s="160"/>
-      <c r="CB4" s="160"/>
-      <c r="CC4" s="160"/>
-      <c r="CD4" s="160"/>
-      <c r="CE4" s="160"/>
-      <c r="CF4" s="160"/>
-      <c r="CG4" s="161"/>
-      <c r="CH4" s="159">
+      <c r="BW4" s="162"/>
+      <c r="BX4" s="162"/>
+      <c r="BY4" s="162"/>
+      <c r="BZ4" s="162"/>
+      <c r="CA4" s="162"/>
+      <c r="CB4" s="162"/>
+      <c r="CC4" s="162"/>
+      <c r="CD4" s="162"/>
+      <c r="CE4" s="162"/>
+      <c r="CF4" s="162"/>
+      <c r="CG4" s="163"/>
+      <c r="CH4" s="161">
         <v>2019</v>
       </c>
-      <c r="CI4" s="160"/>
-      <c r="CJ4" s="160"/>
-      <c r="CK4" s="160"/>
-      <c r="CL4" s="160"/>
-      <c r="CM4" s="160"/>
-      <c r="CN4" s="160"/>
-      <c r="CO4" s="160"/>
-      <c r="CP4" s="160"/>
-      <c r="CQ4" s="160"/>
-      <c r="CR4" s="160"/>
-      <c r="CS4" s="161"/>
-      <c r="CT4" s="159">
+      <c r="CI4" s="162"/>
+      <c r="CJ4" s="162"/>
+      <c r="CK4" s="162"/>
+      <c r="CL4" s="162"/>
+      <c r="CM4" s="162"/>
+      <c r="CN4" s="162"/>
+      <c r="CO4" s="162"/>
+      <c r="CP4" s="162"/>
+      <c r="CQ4" s="162"/>
+      <c r="CR4" s="162"/>
+      <c r="CS4" s="163"/>
+      <c r="CT4" s="161">
         <v>2020</v>
       </c>
-      <c r="CU4" s="160"/>
-      <c r="CV4" s="160"/>
-      <c r="CW4" s="160"/>
-      <c r="CX4" s="160"/>
-      <c r="CY4" s="160"/>
-      <c r="CZ4" s="160"/>
-      <c r="DA4" s="160"/>
-      <c r="DB4" s="160"/>
-      <c r="DC4" s="160"/>
-      <c r="DD4" s="160"/>
-      <c r="DE4" s="161"/>
-      <c r="DF4" s="153" t="s">
+      <c r="CU4" s="162"/>
+      <c r="CV4" s="162"/>
+      <c r="CW4" s="162"/>
+      <c r="CX4" s="162"/>
+      <c r="CY4" s="162"/>
+      <c r="CZ4" s="162"/>
+      <c r="DA4" s="162"/>
+      <c r="DB4" s="162"/>
+      <c r="DC4" s="162"/>
+      <c r="DD4" s="162"/>
+      <c r="DE4" s="163"/>
+      <c r="DF4" s="155" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:110" ht="18" customHeight="1">
-      <c r="A5" s="158"/>
+      <c r="A5" s="160"/>
       <c r="B5" s="110" t="s">
         <v>2</v>
       </c>
@@ -38215,7 +38253,7 @@
       <c r="DE5" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="DF5" s="154"/>
+      <c r="DF5" s="156"/>
     </row>
     <row r="6" spans="1:110" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="104"/>
@@ -38841,7 +38879,9 @@
       <c r="DB8" s="92">
         <v>142.45978579336767</v>
       </c>
-      <c r="DC8" s="92"/>
+      <c r="DC8" s="92">
+        <v>139.78317332402952</v>
+      </c>
       <c r="DD8" s="92"/>
       <c r="DE8" s="92"/>
       <c r="DF8" s="94" t="s">
@@ -39244,7 +39284,9 @@
       <c r="DB9" s="92">
         <v>160.04899630210514</v>
       </c>
-      <c r="DC9" s="92"/>
+      <c r="DC9" s="92">
+        <v>163.91653279846034</v>
+      </c>
       <c r="DD9" s="92"/>
       <c r="DE9" s="92"/>
       <c r="DF9" s="94" t="s">
@@ -39875,7 +39917,9 @@
       <c r="DB12" s="92">
         <v>157.21716514954485</v>
       </c>
-      <c r="DC12" s="92"/>
+      <c r="DC12" s="92">
+        <v>151.55844155844159</v>
+      </c>
       <c r="DD12" s="92"/>
       <c r="DE12" s="92"/>
       <c r="DF12" s="94" t="s">
@@ -40278,7 +40322,9 @@
       <c r="DB13" s="92">
         <v>159.42782834850456</v>
       </c>
-      <c r="DC13" s="92"/>
+      <c r="DC13" s="92">
+        <v>160.51948051948051</v>
+      </c>
       <c r="DD13" s="92"/>
       <c r="DE13" s="92"/>
       <c r="DF13" s="94" t="s">

--- a/data/BI_SPE_raw.xlsx
+++ b/data/BI_SPE_raw.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RetnoAndrini\Departemen Statistik\Survei\SPE\2020\10. Oktober\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_hasyim\Desktop\BIWEB\arc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel 1" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="106">
   <si>
     <t>DESKRIPSI</t>
   </si>
@@ -558,19 +558,16 @@
   <si>
     <t>Makassar</t>
   </si>
-  <si>
-    <t>Nov*</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1432,7 +1429,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1441,7 +1438,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,7 +1459,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1478,24 +1475,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1516,7 +1513,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1530,7 +1527,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1542,7 +1539,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1560,37 +1557,37 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1617,13 +1614,13 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1635,7 +1632,7 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,16 +1647,16 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1668,9 +1665,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
@@ -1720,35 +1717,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5247,17 +5244,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC5" sqref="DC5:DD5"/>
+      <selection pane="topRight" activeCell="DD6" sqref="DD6:DE14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
-    <col min="2" max="62" width="9.36328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="9.36328125" customWidth="1" collapsed="1"/>
-    <col min="64" max="108" width="9.36328125" customWidth="1"/>
-    <col min="109" max="109" width="9.36328125" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="43.36328125" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="62" width="9.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="64" max="109" width="9.33203125" customWidth="1"/>
+    <col min="110" max="110" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:110" s="16" customFormat="1" ht="16.5" customHeight="1">
@@ -5942,7 +5938,7 @@
         <v>9</v>
       </c>
       <c r="DD5" s="50" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="DE5" s="51" t="s">
         <v>86</v>
@@ -6349,9 +6345,11 @@
         <v>118.70683440497544</v>
       </c>
       <c r="DD6" s="54">
-        <v>121.51089017057114</v>
-      </c>
-      <c r="DE6" s="54"/>
+        <v>121.07870215026861</v>
+      </c>
+      <c r="DE6" s="54">
+        <v>125.47633379950062</v>
+      </c>
       <c r="DF6" s="66" t="s">
         <v>56</v>
       </c>
@@ -6756,9 +6754,11 @@
         <v>222.74394900394017</v>
       </c>
       <c r="DD7" s="58">
-        <v>221.73405308703073</v>
-      </c>
-      <c r="DE7" s="58"/>
+        <v>221.55915020118832</v>
+      </c>
+      <c r="DE7" s="58">
+        <v>226.89880585750427</v>
+      </c>
       <c r="DF7" s="67" t="s">
         <v>24</v>
       </c>
@@ -7163,9 +7163,11 @@
         <v>71.029015258345865</v>
       </c>
       <c r="DD8" s="54">
-        <v>73.348072308849268</v>
-      </c>
-      <c r="DE8" s="54"/>
+        <v>73.269386221438481</v>
+      </c>
+      <c r="DE8" s="54">
+        <v>75.5457301793151</v>
+      </c>
       <c r="DF8" s="66" t="s">
         <v>25</v>
       </c>
@@ -7570,9 +7572,11 @@
         <v>212.706196602604</v>
       </c>
       <c r="DD9" s="58">
-        <v>206.48834183426487</v>
-      </c>
-      <c r="DE9" s="58"/>
+        <v>199.56073267181466</v>
+      </c>
+      <c r="DE9" s="58">
+        <v>208.60787734514153</v>
+      </c>
       <c r="DF9" s="67" t="s">
         <v>26</v>
       </c>
@@ -7977,9 +7981,11 @@
         <v>132.48074363720579</v>
       </c>
       <c r="DD10" s="54">
-        <v>131.93488150342881</v>
-      </c>
-      <c r="DE10" s="54"/>
+        <v>127.49047950773279</v>
+      </c>
+      <c r="DE10" s="54">
+        <v>131.25233965858175</v>
+      </c>
       <c r="DF10" s="66" t="s">
         <v>27</v>
       </c>
@@ -8384,9 +8390,11 @@
         <v>65.04038876002133</v>
       </c>
       <c r="DD11" s="58">
-        <v>64.291758693644482</v>
-      </c>
-      <c r="DE11" s="58"/>
+        <v>64.974398873641434</v>
+      </c>
+      <c r="DE11" s="58">
+        <v>66.349140861012771</v>
+      </c>
       <c r="DF11" s="67" t="s">
         <v>28</v>
       </c>
@@ -8791,9 +8799,11 @@
         <v>77.731931582534358</v>
       </c>
       <c r="DD12" s="54">
-        <v>79.38430263237197</v>
-      </c>
-      <c r="DE12" s="54"/>
+        <v>78.877852328227178</v>
+      </c>
+      <c r="DE12" s="54">
+        <v>83.394912687695211</v>
+      </c>
       <c r="DF12" s="66" t="s">
         <v>29</v>
       </c>
@@ -9198,9 +9208,11 @@
         <v>66.348474315797517</v>
       </c>
       <c r="DD13" s="58">
-        <v>69.517679400867394</v>
-      </c>
-      <c r="DE13" s="58"/>
+        <v>70.598412242379766</v>
+      </c>
+      <c r="DE13" s="58">
+        <v>73.780161581001735</v>
+      </c>
       <c r="DF13" s="67" t="s">
         <v>30</v>
       </c>
@@ -9605,9 +9617,11 @@
         <v>183.47160216961299</v>
       </c>
       <c r="DD14" s="115">
-        <v>182.66497428989769</v>
-      </c>
-      <c r="DE14" s="115"/>
+        <v>181.33573874918136</v>
+      </c>
+      <c r="DE14" s="115">
+        <v>186.53135249313951</v>
+      </c>
       <c r="DF14" s="68" t="s">
         <v>31</v>
       </c>
@@ -9844,7 +9858,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:110" s="30" customFormat="1" ht="13.5">
+    <row r="17" spans="1:110" s="30" customFormat="1" ht="13.2">
       <c r="A17" s="22" t="s">
         <v>81</v>
       </c>
@@ -9878,25 +9892,24 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC5" sqref="DC5:DD5"/>
+      <selection pane="topRight" activeCell="DD6" sqref="DD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
-    <col min="2" max="38" width="9.08984375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="61" width="9.36328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="9.36328125" customWidth="1" collapsed="1"/>
-    <col min="63" max="73" width="9.36328125" customWidth="1"/>
-    <col min="74" max="75" width="8.453125" customWidth="1"/>
-    <col min="76" max="76" width="8.36328125" customWidth="1"/>
-    <col min="77" max="77" width="5.90625" customWidth="1"/>
-    <col min="79" max="79" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="38" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="61" width="9.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="63" max="73" width="9.33203125" customWidth="1"/>
+    <col min="74" max="75" width="8.44140625" customWidth="1"/>
+    <col min="76" max="76" width="8.33203125" customWidth="1"/>
+    <col min="77" max="77" width="5.88671875" customWidth="1"/>
+    <col min="79" max="79" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="80" max="100" width="7" customWidth="1"/>
-    <col min="101" max="101" width="7.08984375" customWidth="1"/>
-    <col min="102" max="108" width="7" customWidth="1"/>
-    <col min="109" max="109" width="7" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="45.36328125" customWidth="1"/>
+    <col min="101" max="101" width="7.109375" customWidth="1"/>
+    <col min="102" max="109" width="7" customWidth="1"/>
+    <col min="110" max="110" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:112" s="16" customFormat="1" ht="16.5" customHeight="1">
@@ -10515,7 +10528,7 @@
         <v>9</v>
       </c>
       <c r="DD5" s="50" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="DE5" s="51" t="s">
         <v>86</v>
@@ -10940,11 +10953,11 @@
       </c>
       <c r="DD6" s="54">
         <f>IFERROR('Tabel 1'!DD6/'Tabel 1'!CR6*100-100,"")</f>
-        <v>-21.339335412028433</v>
+        <v>-21.619114424890867</v>
       </c>
       <c r="DE6" s="54">
         <f>IFERROR('Tabel 1'!DE6/'Tabel 1'!CS6*100-100,"")</f>
-        <v>-100</v>
+        <v>-19.990262001134724</v>
       </c>
       <c r="DF6" s="66" t="s">
         <v>56</v>
@@ -11368,11 +11381,11 @@
       </c>
       <c r="DD7" s="58">
         <f>IFERROR('Tabel 1'!DD7/'Tabel 1'!CR7*100-100,"")</f>
-        <v>-6.5066320569849836</v>
+        <v>-6.5803792312809577</v>
       </c>
       <c r="DE7" s="58">
         <f>IFERROR('Tabel 1'!DE7/'Tabel 1'!CS7*100-100,"")</f>
-        <v>-100</v>
+        <v>-12.321549583570118</v>
       </c>
       <c r="DF7" s="67" t="s">
         <v>24</v>
@@ -11796,11 +11809,11 @@
       </c>
       <c r="DD8" s="54">
         <f>IFERROR('Tabel 1'!DD8/'Tabel 1'!CR8*100-100,"")</f>
-        <v>-14.176656191744271</v>
+        <v>-14.268725457100658</v>
       </c>
       <c r="DE8" s="54">
         <f>IFERROR('Tabel 1'!DE8/'Tabel 1'!CS8*100-100,"")</f>
-        <v>-100</v>
+        <v>-12.175824269573695</v>
       </c>
       <c r="DF8" s="66" t="s">
         <v>25</v>
@@ -12224,11 +12237,11 @@
       </c>
       <c r="DD9" s="58">
         <f>IFERROR('Tabel 1'!DD9/'Tabel 1'!CR9*100-100,"")</f>
-        <v>-34.04230551916126</v>
+        <v>-36.255162305944388</v>
       </c>
       <c r="DE9" s="58">
         <f>IFERROR('Tabel 1'!DE9/'Tabel 1'!CS9*100-100,"")</f>
-        <v>-100</v>
+        <v>-38.434248129534751</v>
       </c>
       <c r="DF9" s="67" t="s">
         <v>26</v>
@@ -12652,11 +12665,11 @@
       </c>
       <c r="DD10" s="54">
         <f>IFERROR('Tabel 1'!DD10/'Tabel 1'!CR10*100-100,"")</f>
-        <v>-23.761909835487899</v>
+        <v>-26.330091321794882</v>
       </c>
       <c r="DE10" s="54">
         <f>IFERROR('Tabel 1'!DE10/'Tabel 1'!CS10*100-100,"")</f>
-        <v>-100</v>
+        <v>-27.83789797849137</v>
       </c>
       <c r="DF10" s="66" t="s">
         <v>27</v>
@@ -13080,11 +13093,11 @@
       </c>
       <c r="DD11" s="58">
         <f>IFERROR('Tabel 1'!DD11/'Tabel 1'!CR11*100-100,"")</f>
-        <v>-40.968713580553654</v>
+        <v>-40.341928300361808</v>
       </c>
       <c r="DE11" s="58">
         <f>IFERROR('Tabel 1'!DE11/'Tabel 1'!CS11*100-100,"")</f>
-        <v>-100</v>
+        <v>-38.573065030764923</v>
       </c>
       <c r="DF11" s="67" t="s">
         <v>28</v>
@@ -13508,11 +13521,11 @@
       </c>
       <c r="DD12" s="54">
         <f>IFERROR('Tabel 1'!DD12/'Tabel 1'!CR12*100-100,"")</f>
-        <v>-50.980532459498072</v>
+        <v>-51.293263357442356</v>
       </c>
       <c r="DE12" s="54">
         <f>IFERROR('Tabel 1'!DE12/'Tabel 1'!CS12*100-100,"")</f>
-        <v>-100</v>
+        <v>-55.923079774234211</v>
       </c>
       <c r="DF12" s="66" t="s">
         <v>29</v>
@@ -13936,11 +13949,11 @@
       </c>
       <c r="DD13" s="58">
         <f>IFERROR('Tabel 1'!DD13/'Tabel 1'!CR13*100-100,"")</f>
-        <v>-57.300322121238672</v>
+        <v>-56.636506173938784</v>
       </c>
       <c r="DE13" s="58">
         <f>IFERROR('Tabel 1'!DE13/'Tabel 1'!CS13*100-100,"")</f>
-        <v>-100</v>
+        <v>-60.891645795147845</v>
       </c>
       <c r="DF13" s="67" t="s">
         <v>30</v>
@@ -14364,11 +14377,11 @@
       </c>
       <c r="DD14" s="62">
         <f>IFERROR('Tabel 1'!DD14/'Tabel 1'!CR14*100-100,"")</f>
-        <v>-15.659859886113878</v>
+        <v>-16.273595016147354</v>
       </c>
       <c r="DE14" s="62">
         <f>IFERROR('Tabel 1'!DE14/'Tabel 1'!CS14*100-100,"")</f>
-        <v>-100</v>
+        <v>-20.658013732269211</v>
       </c>
       <c r="DF14" s="68" t="s">
         <v>31</v>
@@ -14608,7 +14621,7 @@
       <c r="DG16" s="29"/>
       <c r="DH16" s="29"/>
     </row>
-    <row r="17" spans="1:110" s="30" customFormat="1" ht="13.5">
+    <row r="17" spans="1:110" s="30" customFormat="1" ht="13.2">
       <c r="A17" s="22" t="s">
         <v>81</v>
       </c>
@@ -14640,22 +14653,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC5" sqref="DC5:DD5"/>
+      <selection pane="topRight" activeCell="DD6" sqref="DD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
-    <col min="2" max="38" width="9.08984375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="61" width="9.36328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="9.36328125" customWidth="1" collapsed="1"/>
-    <col min="63" max="73" width="9.36328125" customWidth="1"/>
-    <col min="74" max="75" width="8.54296875" customWidth="1"/>
-    <col min="76" max="76" width="8.6328125" customWidth="1"/>
-    <col min="77" max="77" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="80" max="108" width="9.08984375" customWidth="1"/>
-    <col min="109" max="109" width="9.08984375" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="43.08984375" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="38" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="61" width="9.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="63" max="73" width="9.33203125" customWidth="1"/>
+    <col min="74" max="75" width="8.5546875" customWidth="1"/>
+    <col min="76" max="76" width="8.6640625" customWidth="1"/>
+    <col min="77" max="77" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="109" width="9.109375" customWidth="1"/>
+    <col min="110" max="110" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:110" s="16" customFormat="1" ht="16.5" customHeight="1">
@@ -15273,7 +15285,7 @@
         <v>9</v>
       </c>
       <c r="DD5" s="50" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="DE5" s="51" t="s">
         <v>86</v>
@@ -15709,11 +15721,11 @@
       </c>
       <c r="DD6" s="54">
         <f>IFERROR('Tabel 1'!DD6/'Tabel 1'!DC6*100-100,"")</f>
-        <v>2.3621687661466098</v>
+        <v>1.9980886165335647</v>
       </c>
       <c r="DE6" s="54">
         <f>IFERROR('Tabel 1'!DE6/'Tabel 1'!DD6*100-100,"")</f>
-        <v>-100</v>
+        <v>3.6320439277373566</v>
       </c>
       <c r="DF6" s="66" t="s">
         <v>56</v>
@@ -16148,11 +16160,11 @@
       </c>
       <c r="DD7" s="58">
         <f>IFERROR('Tabel 1'!DD7/'Tabel 1'!DC7*100-100,"")</f>
-        <v>-0.45338870996292258</v>
+        <v>-0.53191065707957819</v>
       </c>
       <c r="DE7" s="58">
         <f>IFERROR('Tabel 1'!DE7/'Tabel 1'!DD7*100-100,"")</f>
-        <v>-100</v>
+        <v>2.4100361693332246</v>
       </c>
       <c r="DF7" s="67" t="s">
         <v>24</v>
@@ -16587,11 +16599,11 @@
       </c>
       <c r="DD8" s="54">
         <f>IFERROR('Tabel 1'!DD8/'Tabel 1'!DC8*100-100,"")</f>
-        <v>3.2649432658872684</v>
+        <v>3.1541630627201585</v>
       </c>
       <c r="DE8" s="54">
         <f>IFERROR('Tabel 1'!DE8/'Tabel 1'!DD8*100-100,"")</f>
-        <v>-100</v>
+        <v>3.1068145582616751</v>
       </c>
       <c r="DF8" s="66" t="s">
         <v>25</v>
@@ -17026,11 +17038,11 @@
       </c>
       <c r="DD9" s="58">
         <f>IFERROR('Tabel 1'!DD9/'Tabel 1'!DC9*100-100,"")</f>
-        <v>-2.9232128013439365</v>
+        <v>-6.1801038901319885</v>
       </c>
       <c r="DE9" s="58">
         <f>IFERROR('Tabel 1'!DE9/'Tabel 1'!DD9*100-100,"")</f>
-        <v>-100</v>
+        <v>4.5335294936029555</v>
       </c>
       <c r="DF9" s="67" t="s">
         <v>26</v>
@@ -17465,11 +17477,11 @@
       </c>
       <c r="DD10" s="54">
         <f>IFERROR('Tabel 1'!DD10/'Tabel 1'!DC10*100-100,"")</f>
-        <v>-0.4120313026561746</v>
+        <v>-3.766784509557624</v>
       </c>
       <c r="DE10" s="54">
         <f>IFERROR('Tabel 1'!DE10/'Tabel 1'!DD10*100-100,"")</f>
-        <v>-100</v>
+        <v>2.9506988799275575</v>
       </c>
       <c r="DF10" s="66" t="s">
         <v>27</v>
@@ -17904,11 +17916,11 @@
       </c>
       <c r="DD11" s="58">
         <f>IFERROR('Tabel 1'!DD11/'Tabel 1'!DC11*100-100,"")</f>
-        <v>-1.1510233574080502</v>
+        <v>-0.10145985846328642</v>
       </c>
       <c r="DE11" s="58">
         <f>IFERROR('Tabel 1'!DE11/'Tabel 1'!DD11*100-100,"")</f>
-        <v>-100</v>
+        <v>2.1158210175131558</v>
       </c>
       <c r="DF11" s="67" t="s">
         <v>28</v>
@@ -18343,11 +18355,11 @@
       </c>
       <c r="DD12" s="54">
         <f>IFERROR('Tabel 1'!DD12/'Tabel 1'!DC12*100-100,"")</f>
-        <v>2.1257300779707862</v>
+        <v>1.4741956392478244</v>
       </c>
       <c r="DE12" s="54">
         <f>IFERROR('Tabel 1'!DE12/'Tabel 1'!DD12*100-100,"")</f>
-        <v>-100</v>
+        <v>5.7266523189191361</v>
       </c>
       <c r="DF12" s="66" t="s">
         <v>29</v>
@@ -18782,11 +18794,11 @@
       </c>
       <c r="DD13" s="58">
         <f>IFERROR('Tabel 1'!DD13/'Tabel 1'!DC13*100-100,"")</f>
-        <v>4.7766058191262744</v>
+        <v>6.4054795086227614</v>
       </c>
       <c r="DE13" s="58">
         <f>IFERROR('Tabel 1'!DE13/'Tabel 1'!DD13*100-100,"")</f>
-        <v>-100</v>
+        <v>4.5068284647795167</v>
       </c>
       <c r="DF13" s="67" t="s">
         <v>30</v>
@@ -19221,11 +19233,11 @@
       </c>
       <c r="DD14" s="62">
         <f>IFERROR('Tabel 1'!DD14/'Tabel 1'!DC14*100-100,"")</f>
-        <v>-0.43964726430503731</v>
+        <v>-1.16413842533359</v>
       </c>
       <c r="DE14" s="62">
         <f>IFERROR('Tabel 1'!DE14/'Tabel 1'!DD14*100-100,"")</f>
-        <v>-100</v>
+        <v>2.8651901604154233</v>
       </c>
       <c r="DF14" s="68" t="s">
         <v>31</v>
@@ -19494,21 +19506,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ1" sqref="AJ1:AL1048576"/>
+      <selection pane="topRight" activeCell="AK6" sqref="AK6:AK14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
-    <col min="2" max="21" width="8.90625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.08984375" collapsed="1"/>
-    <col min="24" max="25" width="8.08984375" customWidth="1"/>
-    <col min="26" max="36" width="7.54296875" style="48" customWidth="1"/>
-    <col min="37" max="37" width="7.54296875" style="48" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="43.36328125" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="21" width="8.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.109375" collapsed="1"/>
+    <col min="24" max="25" width="8.109375" customWidth="1"/>
+    <col min="26" max="37" width="7.5546875" style="48" customWidth="1"/>
+    <col min="38" max="38" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38" s="16" customFormat="1" ht="16.25" customHeight="1">
+    <row r="2" spans="1:38" s="16" customFormat="1" ht="16.2" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>94</v>
       </c>
@@ -19903,7 +19914,9 @@
         <f>AVERAGE('Tabel 2'!CZ6:DB6)</f>
         <v>-27.419652442326694</v>
       </c>
-      <c r="AK6" s="54"/>
+      <c r="AK6" s="54">
+        <v>-21.486589390819045</v>
+      </c>
       <c r="AL6" s="66" t="s">
         <v>56</v>
       </c>
@@ -20046,7 +20059,9 @@
         <f>AVERAGE('Tabel 2'!CZ7:DB7)</f>
         <v>1.2833176182434585</v>
       </c>
-      <c r="AK7" s="58"/>
+      <c r="AK7" s="58">
+        <v>-8.1509996211670828</v>
+      </c>
       <c r="AL7" s="67" t="s">
         <v>24</v>
       </c>
@@ -20189,7 +20204,9 @@
         <f>AVERAGE('Tabel 2'!CZ8:DB8)</f>
         <v>-22.763319688511718</v>
       </c>
-      <c r="AK8" s="54"/>
+      <c r="AK8" s="54">
+        <v>-14.56924510091774</v>
+      </c>
       <c r="AL8" s="66" t="s">
         <v>25</v>
       </c>
@@ -20332,7 +20349,9 @@
         <f>AVERAGE('Tabel 2'!CZ9:DB9)</f>
         <v>-19.573840590952482</v>
       </c>
-      <c r="AK9" s="58"/>
+      <c r="AK9" s="58">
+        <v>-35.200904649497467</v>
+      </c>
       <c r="AL9" s="67" t="s">
         <v>26</v>
       </c>
@@ -20475,7 +20494,9 @@
         <f>AVERAGE('Tabel 2'!CZ10:DB10)</f>
         <v>-24.020977310172452</v>
       </c>
-      <c r="AK10" s="54"/>
+      <c r="AK10" s="54">
+        <v>-25.831552553040979</v>
+      </c>
       <c r="AL10" s="66" t="s">
         <v>27</v>
       </c>
@@ -20618,7 +20639,9 @@
         <f>AVERAGE('Tabel 2'!CZ11:DB11)</f>
         <v>-38.814308944170598</v>
       </c>
-      <c r="AK11" s="58"/>
+      <c r="AK11" s="58">
+        <v>-39.825321659563038</v>
+      </c>
       <c r="AL11" s="67" t="s">
         <v>28</v>
       </c>
@@ -20761,7 +20784,9 @@
         <f>AVERAGE('Tabel 2'!CZ12:DB12)</f>
         <v>-56.261275711607801</v>
       </c>
-      <c r="AK12" s="54"/>
+      <c r="AK12" s="54">
+        <v>-53.576708830134777</v>
+      </c>
       <c r="AL12" s="66" t="s">
         <v>29</v>
       </c>
@@ -20904,7 +20929,9 @@
         <f>AVERAGE('Tabel 2'!CZ13:DB13)</f>
         <v>-63.685757994892349</v>
       </c>
-      <c r="AK13" s="58"/>
+      <c r="AK13" s="58">
+        <v>-58.531668065255296</v>
+      </c>
       <c r="AL13" s="67" t="s">
         <v>30</v>
       </c>
@@ -21047,7 +21074,9 @@
         <f>AVERAGE('Tabel 2'!CZ14:DB14)</f>
         <v>-10.06733208233031</v>
       </c>
-      <c r="AK14" s="123"/>
+      <c r="AK14" s="123">
+        <v>-17.292126116453691</v>
+      </c>
       <c r="AL14" s="68" t="s">
         <v>31</v>
       </c>
@@ -21296,21 +21325,20 @@
       <pane xSplit="1" ySplit="5" topLeftCell="CU6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="DA18" sqref="DA18"/>
+      <selection pane="bottomRight" activeCell="DD6" sqref="DD6:DE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="35.90625" customWidth="1"/>
-    <col min="2" max="60" width="9.36328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="5.6328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="9.36328125" customWidth="1" collapsed="1"/>
-    <col min="63" max="91" width="9.36328125" customWidth="1"/>
-    <col min="92" max="92" width="10.1796875" customWidth="1"/>
-    <col min="93" max="108" width="9.36328125" customWidth="1"/>
-    <col min="109" max="109" width="9.36328125" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="42.08984375" style="34" customWidth="1"/>
-    <col min="113" max="113" width="8.6328125" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="60" width="9.33203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="5.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="63" max="91" width="9.33203125" customWidth="1"/>
+    <col min="92" max="92" width="10.21875" customWidth="1"/>
+    <col min="93" max="109" width="9.33203125" customWidth="1"/>
+    <col min="110" max="110" width="42.109375" style="34" customWidth="1"/>
+    <col min="113" max="113" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:148" s="16" customFormat="1" ht="15" customHeight="1">
@@ -22033,7 +22061,7 @@
         <v>9</v>
       </c>
       <c r="DD5" s="50" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="DE5" s="51" t="s">
         <v>86</v>
@@ -22363,9 +22391,11 @@
         <v>56.448893951502534</v>
       </c>
       <c r="DD6" s="54">
-        <v>58.790047849981377</v>
-      </c>
-      <c r="DE6" s="54"/>
+        <v>58.180063316059247</v>
+      </c>
+      <c r="DE6" s="54">
+        <v>64.380644556199314</v>
+      </c>
       <c r="DF6" s="64" t="s">
         <v>39</v>
       </c>
@@ -22693,9 +22723,11 @@
         <v>179.99227270494185</v>
       </c>
       <c r="DD7" s="58">
-        <v>171.50103084730679</v>
-      </c>
-      <c r="DE7" s="58"/>
+        <v>171.20183363550152</v>
+      </c>
+      <c r="DE7" s="58">
+        <v>172.84653113170484</v>
+      </c>
       <c r="DF7" s="65" t="s">
         <v>40</v>
       </c>
@@ -23023,9 +23055,11 @@
         <v>283.30880376148826</v>
       </c>
       <c r="DD8" s="54">
-        <v>291.72653394607391</v>
-      </c>
-      <c r="DE8" s="54"/>
+        <v>293.90113965441299</v>
+      </c>
+      <c r="DE8" s="54">
+        <v>302.5493684757954</v>
+      </c>
       <c r="DF8" s="64" t="s">
         <v>41</v>
       </c>
@@ -23353,9 +23387,11 @@
         <v>161.41273948354348</v>
       </c>
       <c r="DD9" s="58">
-        <v>165.95894250063725</v>
-      </c>
-      <c r="DE9" s="58"/>
+        <v>164.32585634268631</v>
+      </c>
+      <c r="DE9" s="58">
+        <v>169.69556363304415</v>
+      </c>
       <c r="DF9" s="65" t="s">
         <v>42</v>
       </c>
@@ -23683,9 +23719,11 @@
         <v>120.51543084843507</v>
       </c>
       <c r="DD10" s="54">
-        <v>118.31580264877235</v>
-      </c>
-      <c r="DE10" s="54"/>
+        <v>111.07592968194322</v>
+      </c>
+      <c r="DE10" s="54">
+        <v>116.20926105684346</v>
+      </c>
       <c r="DF10" s="64" t="s">
         <v>43</v>
       </c>
@@ -24013,9 +24051,11 @@
         <v>93.04565293773426</v>
       </c>
       <c r="DD11" s="58">
-        <v>97.323867616954786</v>
-      </c>
-      <c r="DE11" s="58"/>
+        <v>92.147049412221008</v>
+      </c>
+      <c r="DE11" s="58">
+        <v>98.330061850608516</v>
+      </c>
       <c r="DF11" s="65" t="s">
         <v>44</v>
       </c>
@@ -24343,9 +24383,11 @@
         <v>182.3056352185942</v>
       </c>
       <c r="DD12" s="54">
-        <v>184.10655345622501</v>
-      </c>
-      <c r="DE12" s="54"/>
+        <v>180.86604495460239</v>
+      </c>
+      <c r="DE12" s="54">
+        <v>184.74035454190755</v>
+      </c>
       <c r="DF12" s="64" t="s">
         <v>45</v>
       </c>
@@ -24673,9 +24715,11 @@
         <v>196.443191590705</v>
       </c>
       <c r="DD13" s="58">
-        <v>199.26896542728653</v>
-      </c>
-      <c r="DE13" s="58"/>
+        <v>201.41169750047854</v>
+      </c>
+      <c r="DE13" s="58">
+        <v>210.72019271230906</v>
+      </c>
       <c r="DF13" s="65" t="s">
         <v>46</v>
       </c>
@@ -25003,9 +25047,11 @@
         <v>92.519594354496121</v>
       </c>
       <c r="DD14" s="54">
-        <v>92.167936814518796</v>
-      </c>
-      <c r="DE14" s="54"/>
+        <v>91.802951639540055</v>
+      </c>
+      <c r="DE14" s="54">
+        <v>92.5000264090841</v>
+      </c>
       <c r="DF14" s="64" t="s">
         <v>47</v>
       </c>
@@ -25333,9 +25379,11 @@
         <v>183.47160216961299</v>
       </c>
       <c r="DD15" s="115">
-        <v>182.66497428989769</v>
-      </c>
-      <c r="DE15" s="115"/>
+        <v>181.33573874918136</v>
+      </c>
+      <c r="DE15" s="115">
+        <v>186.53135249313951</v>
+      </c>
       <c r="DF15" s="79" t="s">
         <v>31</v>
       </c>
@@ -25782,20 +25830,19 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC5" sqref="DC5:DD5"/>
+      <selection pane="topRight" activeCell="DD6" sqref="DD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
-    <col min="2" max="61" width="9.08984375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="8.90625" collapsed="1"/>
-    <col min="74" max="75" width="8.6328125" customWidth="1"/>
-    <col min="76" max="76" width="7.6328125" customWidth="1"/>
-    <col min="77" max="77" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="80" max="108" width="9.08984375" customWidth="1"/>
-    <col min="109" max="109" width="9.08984375" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="28.90625" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="61" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="8.88671875" collapsed="1"/>
+    <col min="74" max="75" width="8.6640625" customWidth="1"/>
+    <col min="76" max="76" width="7.6640625" customWidth="1"/>
+    <col min="77" max="77" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="80" max="109" width="9.109375" customWidth="1"/>
+    <col min="110" max="110" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:110" s="16" customFormat="1" ht="15" customHeight="1">
@@ -25881,7 +25928,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:110" ht="17" customHeight="1" thickBot="1">
+    <row r="3" spans="1:110" ht="16.95" customHeight="1" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -26414,7 +26461,7 @@
         <v>9</v>
       </c>
       <c r="DD5" s="50" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="DE5" s="50" t="s">
         <v>86</v>
@@ -26839,11 +26886,11 @@
       </c>
       <c r="DD6" s="54">
         <f>IFERROR('Tabel 5'!DD6/'Tabel 5'!CR6*100-100,"")</f>
-        <v>-45.219699364358725</v>
+        <v>-45.788080193655091</v>
       </c>
       <c r="DE6" s="54">
         <f>IFERROR('Tabel 5'!DE6/'Tabel 5'!CS6*100-100,"")</f>
-        <v>-100</v>
+        <v>-48.852546370883928</v>
       </c>
       <c r="DF6" s="66" t="s">
         <v>39</v>
@@ -27267,11 +27314,11 @@
       </c>
       <c r="DD7" s="58">
         <f>IFERROR('Tabel 5'!DD7/'Tabel 5'!CR7*100-100,"")</f>
-        <v>-29.204757822316637</v>
+        <v>-29.328265762554622</v>
       </c>
       <c r="DE7" s="58">
         <f>IFERROR('Tabel 5'!DE7/'Tabel 5'!CS7*100-100,"")</f>
-        <v>-100</v>
+        <v>-33.911539990860206</v>
       </c>
       <c r="DF7" s="67" t="s">
         <v>40</v>
@@ -27695,11 +27742,11 @@
       </c>
       <c r="DD8" s="54">
         <f>IFERROR('Tabel 5'!DD8/'Tabel 5'!CR8*100-100,"")</f>
-        <v>7.5225171672217925</v>
+        <v>8.3240180675480104</v>
       </c>
       <c r="DE8" s="54">
         <f>IFERROR('Tabel 5'!DE8/'Tabel 5'!CS8*100-100,"")</f>
-        <v>-100</v>
+        <v>4.301928384228475</v>
       </c>
       <c r="DF8" s="66" t="s">
         <v>41</v>
@@ -28123,11 +28170,11 @@
       </c>
       <c r="DD9" s="58">
         <f>IFERROR('Tabel 5'!DD9/'Tabel 5'!CR9*100-100,"")</f>
-        <v>-14.394252933448641</v>
+        <v>-15.236639360289701</v>
       </c>
       <c r="DE9" s="58">
         <f>IFERROR('Tabel 5'!DE9/'Tabel 5'!CS9*100-100,"")</f>
-        <v>-100</v>
+        <v>-15.448399885888477</v>
       </c>
       <c r="DF9" s="67" t="s">
         <v>42</v>
@@ -28551,11 +28598,11 @@
       </c>
       <c r="DD10" s="54">
         <f>IFERROR('Tabel 5'!DD10/'Tabel 5'!CR10*100-100,"")</f>
-        <v>-29.833582983895624</v>
+        <v>-34.127142545353109</v>
       </c>
       <c r="DE10" s="54">
         <f>IFERROR('Tabel 5'!DE10/'Tabel 5'!CS10*100-100,"")</f>
-        <v>-100</v>
+        <v>-34.802662236041897</v>
       </c>
       <c r="DF10" s="66" t="s">
         <v>43</v>
@@ -28979,11 +29026,11 @@
       </c>
       <c r="DD11" s="58">
         <f>IFERROR('Tabel 5'!DD11/'Tabel 5'!CR11*100-100,"")</f>
-        <v>-10.492537576888495</v>
+        <v>-15.253588203803417</v>
       </c>
       <c r="DE11" s="58">
         <f>IFERROR('Tabel 5'!DE11/'Tabel 5'!CS11*100-100,"")</f>
-        <v>-100</v>
+        <v>-14.435608062975746</v>
       </c>
       <c r="DF11" s="67" t="s">
         <v>44</v>
@@ -29407,11 +29454,11 @@
       </c>
       <c r="DD12" s="54">
         <f>IFERROR('Tabel 5'!DD12/'Tabel 5'!CR12*100-100,"")</f>
-        <v>1.6451878407630574</v>
+        <v>-0.14389619325714875</v>
       </c>
       <c r="DE12" s="54">
         <f>IFERROR('Tabel 5'!DE12/'Tabel 5'!CS12*100-100,"")</f>
-        <v>-100</v>
+        <v>-6.9967641928681701</v>
       </c>
       <c r="DF12" s="66" t="s">
         <v>45</v>
@@ -29835,11 +29882,11 @@
       </c>
       <c r="DD13" s="58">
         <f>IFERROR('Tabel 5'!DD13/'Tabel 5'!CR13*100-100,"")</f>
-        <v>7.9327099426880494</v>
+        <v>9.0933065205084773</v>
       </c>
       <c r="DE13" s="58">
         <f>IFERROR('Tabel 5'!DE13/'Tabel 5'!CS13*100-100,"")</f>
-        <v>-100</v>
+        <v>0.89653722037081707</v>
       </c>
       <c r="DF13" s="67" t="s">
         <v>46</v>
@@ -30263,11 +30310,11 @@
       </c>
       <c r="DD14" s="54">
         <f>IFERROR('Tabel 5'!DD14/'Tabel 5'!CR14*100-100,"")</f>
-        <v>-31.723799399825182</v>
+        <v>-31.994173261758192</v>
       </c>
       <c r="DE14" s="54">
         <f>IFERROR('Tabel 5'!DE14/'Tabel 5'!CS14*100-100,"")</f>
-        <v>-100</v>
+        <v>-32.842656844319933</v>
       </c>
       <c r="DF14" s="66" t="s">
         <v>47</v>
@@ -30691,11 +30738,11 @@
       </c>
       <c r="DD15" s="62">
         <f>IFERROR('Tabel 5'!DD15/'Tabel 5'!CR15*100-100,"")</f>
-        <v>-15.659859886113878</v>
+        <v>-16.273595016147354</v>
       </c>
       <c r="DE15" s="62">
         <f>IFERROR('Tabel 5'!DE15/'Tabel 5'!CS15*100-100,"")</f>
-        <v>-100</v>
+        <v>-20.658013732269211</v>
       </c>
       <c r="DF15" s="80" t="s">
         <v>31</v>
@@ -30782,7 +30829,7 @@
       <c r="DG18" s="37"/>
       <c r="DH18" s="37"/>
     </row>
-    <row r="19" spans="1:112" s="20" customFormat="1" ht="13.5">
+    <row r="19" spans="1:112" s="20" customFormat="1" ht="13.2">
       <c r="A19" s="22" t="s">
         <v>83</v>
       </c>
@@ -30814,21 +30861,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC5" sqref="DC5:DD5"/>
+      <selection pane="topRight" activeCell="DD6" sqref="DD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
-    <col min="2" max="61" width="9.08984375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="9.08984375" collapsed="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="61" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="9.109375" collapsed="1"/>
     <col min="76" max="76" width="8" customWidth="1"/>
-    <col min="77" max="77" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="80" max="91" width="9.08984375" customWidth="1"/>
-    <col min="92" max="92" width="9.81640625" customWidth="1"/>
-    <col min="93" max="108" width="9.08984375" customWidth="1"/>
-    <col min="109" max="109" width="9.08984375" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="28.453125" customWidth="1"/>
+    <col min="77" max="77" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="91" width="9.109375" customWidth="1"/>
+    <col min="92" max="92" width="9.77734375" customWidth="1"/>
+    <col min="93" max="109" width="9.109375" customWidth="1"/>
+    <col min="110" max="110" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:110" s="16" customFormat="1" ht="15" customHeight="1">
@@ -31447,7 +31493,7 @@
         <v>9</v>
       </c>
       <c r="DD5" s="50" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="DE5" s="51" t="s">
         <v>86</v>
@@ -31883,11 +31929,11 @@
       </c>
       <c r="DD6" s="54">
         <f>IFERROR('Tabel 5'!DD6/'Tabel 5'!DC6*100-100,"")</f>
-        <v>4.1473866618010504</v>
+        <v>3.0667905841415148</v>
       </c>
       <c r="DE6" s="54">
         <f>IFERROR('Tabel 5'!DE6/'Tabel 5'!DD6*100-100,"")</f>
-        <v>-100</v>
+        <v>10.65757045752224</v>
       </c>
       <c r="DF6" s="66" t="s">
         <v>39</v>
@@ -32322,11 +32368,11 @@
       </c>
       <c r="DD7" s="58">
         <f>IFERROR('Tabel 5'!DD7/'Tabel 5'!DC7*100-100,"")</f>
-        <v>-4.7175591096372216</v>
+        <v>-4.8837869189253098</v>
       </c>
       <c r="DE7" s="58">
         <f>IFERROR('Tabel 5'!DE7/'Tabel 5'!DD7*100-100,"")</f>
-        <v>-100</v>
+        <v>0.96067750051378198</v>
       </c>
       <c r="DF7" s="67" t="s">
         <v>40</v>
@@ -32761,11 +32807,11 @@
       </c>
       <c r="DD8" s="54">
         <f>IFERROR('Tabel 5'!DD8/'Tabel 5'!DC8*100-100,"")</f>
-        <v>2.9712208278823482</v>
+        <v>3.7387951776614017</v>
       </c>
       <c r="DE8" s="54">
         <f>IFERROR('Tabel 5'!DE8/'Tabel 5'!DD8*100-100,"")</f>
-        <v>-100</v>
+        <v>2.9425638946319026</v>
       </c>
       <c r="DF8" s="66" t="s">
         <v>41</v>
@@ -33200,11 +33246,11 @@
       </c>
       <c r="DD9" s="58">
         <f>IFERROR('Tabel 5'!DD9/'Tabel 5'!DC9*100-100,"")</f>
-        <v>2.8165081837033625</v>
+        <v>1.8047626652416966</v>
       </c>
       <c r="DE9" s="58">
         <f>IFERROR('Tabel 5'!DE9/'Tabel 5'!DD9*100-100,"")</f>
-        <v>-100</v>
+        <v>3.2677190369602158</v>
       </c>
       <c r="DF9" s="67" t="s">
         <v>42</v>
@@ -33639,11 +33685,11 @@
       </c>
       <c r="DD10" s="54">
         <f>IFERROR('Tabel 5'!DD10/'Tabel 5'!DC10*100-100,"")</f>
-        <v>-1.8251838658147221</v>
+        <v>-7.8326079075826698</v>
       </c>
       <c r="DE10" s="54">
         <f>IFERROR('Tabel 5'!DE10/'Tabel 5'!DD10*100-100,"")</f>
-        <v>-100</v>
+        <v>4.6214615440078859</v>
       </c>
       <c r="DF10" s="66" t="s">
         <v>43</v>
@@ -34078,11 +34124,11 @@
       </c>
       <c r="DD11" s="58">
         <f>IFERROR('Tabel 5'!DD11/'Tabel 5'!DC11*100-100,"")</f>
-        <v>4.5979737302542105</v>
+        <v>-0.96576626327141923</v>
       </c>
       <c r="DE11" s="58">
         <f>IFERROR('Tabel 5'!DE11/'Tabel 5'!DD11*100-100,"")</f>
-        <v>-100</v>
+        <v>6.7099407716547859</v>
       </c>
       <c r="DF11" s="67" t="s">
         <v>44</v>
@@ -34517,11 +34563,11 @@
       </c>
       <c r="DD12" s="54">
         <f>IFERROR('Tabel 5'!DD12/'Tabel 5'!DC12*100-100,"")</f>
-        <v>0.98785659339131371</v>
+        <v>-0.7896575782013997</v>
       </c>
       <c r="DE12" s="54">
         <f>IFERROR('Tabel 5'!DE12/'Tabel 5'!DD12*100-100,"")</f>
-        <v>-100</v>
+        <v>2.1420878574956532</v>
       </c>
       <c r="DF12" s="66" t="s">
         <v>45</v>
@@ -34956,11 +35002,11 @@
       </c>
       <c r="DD13" s="58">
         <f>IFERROR('Tabel 5'!DD13/'Tabel 5'!DC13*100-100,"")</f>
-        <v>1.4384687062451746</v>
+        <v>2.5292329398341167</v>
       </c>
       <c r="DE13" s="58">
         <f>IFERROR('Tabel 5'!DE13/'Tabel 5'!DD13*100-100,"")</f>
-        <v>-100</v>
+        <v>4.6216259171383882</v>
       </c>
       <c r="DF13" s="67" t="s">
         <v>46</v>
@@ -35395,11 +35441,11 @@
       </c>
       <c r="DD14" s="54">
         <f>IFERROR('Tabel 5'!DD14/'Tabel 5'!DC14*100-100,"")</f>
-        <v>-0.38008979874028626</v>
+        <v>-0.77458480006970376</v>
       </c>
       <c r="DE14" s="54">
         <f>IFERROR('Tabel 5'!DE14/'Tabel 5'!DD14*100-100,"")</f>
-        <v>-100</v>
+        <v>0.75931629331600448</v>
       </c>
       <c r="DF14" s="66" t="s">
         <v>47</v>
@@ -35834,11 +35880,11 @@
       </c>
       <c r="DD15" s="62">
         <f>IFERROR('Tabel 5'!DD15/'Tabel 5'!DC15*100-100,"")</f>
-        <v>-0.43964726430503731</v>
+        <v>-1.16413842533359</v>
       </c>
       <c r="DE15" s="62">
         <f>IFERROR('Tabel 5'!DE15/'Tabel 5'!DD15*100-100,"")</f>
-        <v>-100</v>
+        <v>2.8651901604154233</v>
       </c>
       <c r="DF15" s="80" t="s">
         <v>31</v>
@@ -35923,7 +35969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:110" s="20" customFormat="1" ht="13.5">
+    <row r="19" spans="1:110" s="20" customFormat="1" ht="13.2">
       <c r="A19" s="22" t="s">
         <v>83</v>
       </c>
@@ -35958,22 +36004,21 @@
       <pane xSplit="1" ySplit="5" topLeftCell="Z6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AJ6" sqref="AJ6"/>
+      <selection pane="bottomRight" activeCell="AK6" sqref="AK6:AK15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
-    <col min="2" max="16" width="9.08984375" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.453125" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="21" width="9.08984375" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9.08984375"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="16" width="9.109375" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="21" width="9.109375" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9.109375"/>
     <col min="26" max="26" width="8" style="48" customWidth="1"/>
-    <col min="27" max="27" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.81640625" customWidth="1"/>
-    <col min="29" max="36" width="7.54296875" customWidth="1"/>
-    <col min="37" max="37" width="7.54296875" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="27.6328125" customWidth="1"/>
+    <col min="27" max="27" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.77734375" customWidth="1"/>
+    <col min="29" max="37" width="7.5546875" customWidth="1"/>
+    <col min="38" max="38" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:38" s="16" customFormat="1" ht="15" customHeight="1">
@@ -36327,7 +36372,9 @@
         <f>AVERAGE('Tabel 6'!CZ6:DB6)</f>
         <v>-45.155620862648256</v>
       </c>
-      <c r="AK6" s="117"/>
+      <c r="AK6" s="117">
+        <v>-46.709124190613238</v>
+      </c>
       <c r="AL6" s="66" t="s">
         <v>39</v>
       </c>
@@ -36448,7 +36495,9 @@
         <f>AVERAGE('Tabel 6'!CZ7:DB7)</f>
         <v>-16.751899893435223</v>
       </c>
-      <c r="AK7" s="118"/>
+      <c r="AK7" s="118">
+        <v>-29.738874313077066</v>
+      </c>
       <c r="AL7" s="67" t="s">
         <v>40</v>
       </c>
@@ -36569,7 +36618,9 @@
         <f>AVERAGE('Tabel 6'!CZ8:DB8)</f>
         <v>4.7802587082615604</v>
       </c>
-      <c r="AK8" s="117"/>
+      <c r="AK8" s="117">
+        <v>5.8937281567673345</v>
+      </c>
       <c r="AL8" s="66" t="s">
         <v>41</v>
       </c>
@@ -36690,7 +36741,9 @@
         <f>AVERAGE('Tabel 6'!CZ9:DB9)</f>
         <v>-18.930803518680332</v>
       </c>
-      <c r="AK9" s="118"/>
+      <c r="AK9" s="118">
+        <v>-15.31274794462861</v>
+      </c>
       <c r="AL9" s="67" t="s">
         <v>42</v>
       </c>
@@ -36811,7 +36864,9 @@
         <f>AVERAGE('Tabel 6'!CZ10:DB10)</f>
         <v>-11.385451927993321</v>
       </c>
-      <c r="AK10" s="117"/>
+      <c r="AK10" s="117">
+        <v>-31.516014726161217</v>
+      </c>
       <c r="AL10" s="66" t="s">
         <v>43</v>
       </c>
@@ -36932,7 +36987,9 @@
         <f>AVERAGE('Tabel 6'!CZ11:DB11)</f>
         <v>-37.182211334960236</v>
       </c>
-      <c r="AK11" s="118"/>
+      <c r="AK11" s="118">
+        <v>-14.453126212028161</v>
+      </c>
       <c r="AL11" s="67" t="s">
         <v>44</v>
       </c>
@@ -37053,7 +37110,9 @@
         <f>AVERAGE('Tabel 6'!CZ12:DB12)</f>
         <v>3.1305947185759067</v>
       </c>
-      <c r="AK12" s="117"/>
+      <c r="AK12" s="117">
+        <v>-1.210486251152924</v>
+      </c>
       <c r="AL12" s="66" t="s">
         <v>45</v>
       </c>
@@ -37174,7 +37233,9 @@
         <f>AVERAGE('Tabel 6'!CZ13:DB13)</f>
         <v>9.8673906107254172</v>
       </c>
-      <c r="AK13" s="118"/>
+      <c r="AK13" s="118">
+        <v>5.3958420807904472</v>
+      </c>
       <c r="AL13" s="67" t="s">
         <v>46</v>
       </c>
@@ -37295,7 +37356,9 @@
         <f>AVERAGE('Tabel 6'!CZ14:DB14)</f>
         <v>-31.814601509990087</v>
       </c>
-      <c r="AK14" s="117"/>
+      <c r="AK14" s="117">
+        <v>-31.98683744000952</v>
+      </c>
       <c r="AL14" s="66" t="s">
         <v>47</v>
       </c>
@@ -37416,7 +37479,9 @@
         <f>AVERAGE('Tabel 6'!CZ15:DB15)</f>
         <v>-10.06733208233031</v>
       </c>
-      <c r="AK15" s="119"/>
+      <c r="AK15" s="119">
+        <v>-17.292126116453691</v>
+      </c>
       <c r="AL15" s="68" t="s">
         <v>31</v>
       </c>
@@ -37551,19 +37616,19 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CY18" sqref="CY18"/>
+      <selection pane="topRight" activeCell="DF18" sqref="DF18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
-    <col min="2" max="61" width="9.08984375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="8.90625" collapsed="1"/>
-    <col min="80" max="82" width="9.08984375" customWidth="1"/>
-    <col min="83" max="83" width="9.36328125" customWidth="1"/>
-    <col min="84" max="107" width="9.08984375" customWidth="1"/>
-    <col min="108" max="109" width="9.08984375" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="36.453125" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="61" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="8.88671875" collapsed="1"/>
+    <col min="80" max="82" width="9.109375" customWidth="1"/>
+    <col min="83" max="83" width="9.33203125" customWidth="1"/>
+    <col min="84" max="108" width="9.109375" customWidth="1"/>
+    <col min="109" max="109" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="110" max="110" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:110" s="16" customFormat="1" ht="14.4" customHeight="1">
@@ -38882,7 +38947,9 @@
       <c r="DC8" s="92">
         <v>139.78317332402952</v>
       </c>
-      <c r="DD8" s="92"/>
+      <c r="DD8" s="92">
+        <v>150.41121413382052</v>
+      </c>
       <c r="DE8" s="92"/>
       <c r="DF8" s="94" t="s">
         <v>53</v>
@@ -39287,7 +39354,9 @@
       <c r="DC9" s="92">
         <v>163.91653279846034</v>
       </c>
-      <c r="DD9" s="92"/>
+      <c r="DD9" s="92">
+        <v>161.66314188571283</v>
+      </c>
       <c r="DE9" s="92"/>
       <c r="DF9" s="94" t="s">
         <v>54</v>
@@ -39920,7 +39989,9 @@
       <c r="DC12" s="92">
         <v>151.55844155844159</v>
       </c>
-      <c r="DD12" s="92"/>
+      <c r="DD12" s="92">
+        <v>153.43709468223088</v>
+      </c>
       <c r="DE12" s="92"/>
       <c r="DF12" s="94" t="s">
         <v>53</v>
@@ -40325,7 +40396,9 @@
       <c r="DC13" s="92">
         <v>160.51948051948051</v>
       </c>
-      <c r="DD13" s="92"/>
+      <c r="DD13" s="92">
+        <v>165.06493506493507</v>
+      </c>
       <c r="DE13" s="92"/>
       <c r="DF13" s="94" t="s">
         <v>54</v>
